--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_21_33.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_21_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1422562.515760734</v>
+        <v>1421895.828658358</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>394074.1703819047</v>
+        <v>394074.1703819045</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058544</v>
+        <v>632041.4518058547</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>83.81099470625608</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>83.8109947062561</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>5.075886630925013</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>83.8109947062561</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>83.8109947062561</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>36.21910086722869</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>22.91776996152072</v>
+        <v>22.91776996152075</v>
       </c>
       <c r="T11" t="n">
-        <v>18.09022035898438</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>45.82706754482453</v>
+        <v>45.82706754482456</v>
       </c>
       <c r="V11" t="n">
-        <v>34.57756011096828</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>83.81099470625608</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>78.63087265326402</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.040069060206896</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -1500,22 +1500,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>10.62223208240267</v>
+        <v>10.6222320824027</v>
       </c>
       <c r="U12" t="n">
-        <v>32.90513957632349</v>
+        <v>83.8109947062561</v>
       </c>
       <c r="V12" t="n">
-        <v>45.68219700792798</v>
+        <v>36.326418455056</v>
       </c>
       <c r="W12" t="n">
-        <v>62.38208111666532</v>
+        <v>83.8109947062561</v>
       </c>
       <c r="X12" t="n">
-        <v>83.81099470625608</v>
+        <v>12.99041197912436</v>
       </c>
       <c r="Y12" t="n">
-        <v>83.81099470625608</v>
+        <v>19.06178367367937</v>
       </c>
     </row>
     <row r="13">
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>31.0206121010364</v>
+        <v>31.02061210103643</v>
       </c>
       <c r="T13" t="n">
-        <v>19.41578159860741</v>
+        <v>19.41578159860743</v>
       </c>
       <c r="U13" t="n">
-        <v>83.81099470625608</v>
+        <v>83.8109947062561</v>
       </c>
       <c r="V13" t="n">
-        <v>40.78651272410363</v>
+        <v>40.78651272410366</v>
       </c>
       <c r="W13" t="n">
-        <v>83.81099470625608</v>
+        <v>83.8109947062561</v>
       </c>
       <c r="X13" t="n">
-        <v>17.59695294789626</v>
+        <v>17.59695294789628</v>
       </c>
       <c r="Y13" t="n">
-        <v>12.81877035382215</v>
+        <v>12.81877035382217</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>83.81099470625608</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>83.81099470625608</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>36.2191008672286</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>22.91776996152064</v>
+        <v>22.91776996152075</v>
       </c>
       <c r="T14" t="n">
-        <v>18.09022035898429</v>
+        <v>18.0902203589844</v>
       </c>
       <c r="U14" t="n">
-        <v>45.82706754482444</v>
+        <v>45.82706754482456</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>83.8109947062561</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>83.8109947062561</v>
       </c>
       <c r="X14" t="n">
-        <v>34.57756011096853</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>70.79666097819666</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>83.81099470625608</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>51.86130901229092</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.040069060206896</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>83.8109947062561</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>10.62223208240258</v>
+        <v>10.6222320824027</v>
       </c>
       <c r="U15" t="n">
-        <v>32.90513957632341</v>
+        <v>35.31057521027805</v>
       </c>
       <c r="V15" t="n">
-        <v>45.57968704908994</v>
+        <v>36.326418455056</v>
       </c>
       <c r="W15" t="n">
-        <v>62.38208111666523</v>
+        <v>62.38208111666535</v>
       </c>
       <c r="X15" t="n">
-        <v>12.99041197912425</v>
+        <v>12.99041197912436</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.06178367367926</v>
+        <v>83.8109947062561</v>
       </c>
     </row>
     <row r="16">
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>31.02061210103631</v>
+        <v>31.02061210103643</v>
       </c>
       <c r="T16" t="n">
-        <v>19.41578159860732</v>
+        <v>19.41578159860743</v>
       </c>
       <c r="U16" t="n">
-        <v>83.81099470625608</v>
+        <v>83.8109947062561</v>
       </c>
       <c r="V16" t="n">
-        <v>40.78651272410355</v>
+        <v>40.78651272410366</v>
       </c>
       <c r="W16" t="n">
-        <v>83.81099470625608</v>
+        <v>83.8109947062561</v>
       </c>
       <c r="X16" t="n">
-        <v>17.59695294789617</v>
+        <v>17.59695294789628</v>
       </c>
       <c r="Y16" t="n">
-        <v>12.81877035382206</v>
+        <v>12.81877035382217</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>38.36952449916447</v>
+        <v>38.36952449916441</v>
       </c>
       <c r="C17" t="n">
-        <v>14.48778150250996</v>
+        <v>14.4877815025099</v>
       </c>
       <c r="D17" t="n">
-        <v>2.054443763558425</v>
+        <v>2.054443763558368</v>
       </c>
       <c r="E17" t="n">
-        <v>35.7611961829673</v>
+        <v>35.76119618296853</v>
       </c>
       <c r="F17" t="n">
-        <v>67.48153376134462</v>
+        <v>67.48153376134456</v>
       </c>
       <c r="G17" t="n">
-        <v>83.10831349049319</v>
+        <v>83.10831349049279</v>
       </c>
       <c r="H17" t="n">
-        <v>11.1793171530847</v>
+        <v>11.17931715308464</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1904,13 +1904,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>2.178747947098032</v>
+        <v>2.178747947097975</v>
       </c>
       <c r="X17" t="n">
-        <v>24.06499841603727</v>
+        <v>24.06499841603721</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.56785153978103</v>
+        <v>46.56785153978097</v>
       </c>
     </row>
     <row r="18">
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>51.86130901229092</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,13 +1965,13 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.040069060206896</v>
+        <v>6.040069060206893</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>83.8109947062561</v>
       </c>
       <c r="S18" t="n">
-        <v>83.81099470625608</v>
+        <v>83.8109947062561</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1980,16 +1980,16 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>15.91934606477252</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>83.81099470625608</v>
+        <v>67.78065507706344</v>
       </c>
       <c r="Y18" t="n">
-        <v>83.81099470625608</v>
+        <v>83.8109947062561</v>
       </c>
     </row>
     <row r="19">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>38.36952449916447</v>
+        <v>38.36952449916441</v>
       </c>
       <c r="C20" t="n">
-        <v>14.48778150250996</v>
+        <v>14.48778150251035</v>
       </c>
       <c r="D20" t="n">
-        <v>2.054443763558425</v>
+        <v>2.054443763558368</v>
       </c>
       <c r="E20" t="n">
-        <v>35.7611961829673</v>
+        <v>35.76119618296724</v>
       </c>
       <c r="F20" t="n">
-        <v>67.48153376134462</v>
+        <v>67.48153376134456</v>
       </c>
       <c r="G20" t="n">
-        <v>83.10831349049285</v>
+        <v>83.10831349049279</v>
       </c>
       <c r="H20" t="n">
-        <v>11.1793171530847</v>
+        <v>11.17931715308464</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>2.178747947098032</v>
+        <v>2.178747947097975</v>
       </c>
       <c r="X20" t="n">
-        <v>24.06499841603727</v>
+        <v>24.06499841603721</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.56785153978103</v>
+        <v>46.56785153978097</v>
       </c>
     </row>
     <row r="21">
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>67.78065507706344</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>67.78065507706346</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2202,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.040069060206896</v>
+        <v>6.040069060206893</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -2217,16 +2217,16 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>83.8109947062561</v>
       </c>
       <c r="W21" t="n">
-        <v>83.81099470625608</v>
+        <v>83.8109947062561</v>
       </c>
       <c r="X21" t="n">
-        <v>83.81099470625608</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>83.81099470625608</v>
+        <v>83.8109947062561</v>
       </c>
     </row>
     <row r="22">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>38.36952449916447</v>
+        <v>38.36952449916441</v>
       </c>
       <c r="C23" t="n">
-        <v>14.48778150250996</v>
+        <v>14.4877815025099</v>
       </c>
       <c r="D23" t="n">
-        <v>2.054443763558425</v>
+        <v>2.054443763558368</v>
       </c>
       <c r="E23" t="n">
-        <v>35.7611961829673</v>
+        <v>35.76119618296724</v>
       </c>
       <c r="F23" t="n">
-        <v>67.48153376134462</v>
+        <v>67.48153376134456</v>
       </c>
       <c r="G23" t="n">
-        <v>83.10831349049283</v>
+        <v>83.10831349049278</v>
       </c>
       <c r="H23" t="n">
-        <v>11.1793171530847</v>
+        <v>11.17931715308464</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>2.178747947098032</v>
+        <v>2.178747947097975</v>
       </c>
       <c r="X23" t="n">
-        <v>24.06499841603727</v>
+        <v>24.06499841603721</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.56785153978103</v>
+        <v>46.56785153978097</v>
       </c>
     </row>
     <row r="24">
@@ -2403,10 +2403,10 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>21.95941512497946</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>83.81099470625612</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2415,10 +2415,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>83.81099470625612</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>51.86130901229092</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,16 +2442,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>83.81099470625612</v>
+        <v>83.8109947062561</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>73.82072413727036</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>83.8109947062561</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>83.8109947062561</v>
       </c>
     </row>
     <row r="25">
@@ -2567,7 +2567,7 @@
         <v>190.3568429661005</v>
       </c>
       <c r="G26" t="n">
-        <v>205.9836226952487</v>
+        <v>205.9836226952488</v>
       </c>
       <c r="H26" t="n">
         <v>134.0546263578406</v>
@@ -2606,7 +2606,7 @@
         <v>14.39786574795403</v>
       </c>
       <c r="T26" t="n">
-        <v>9.570316145417678</v>
+        <v>9.570316145417683</v>
       </c>
       <c r="U26" t="n">
         <v>37.30716333125784</v>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>11.68017394901214</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2676,22 +2676,22 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.040069060206896</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>191.47010505155</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>214.9447345427489</v>
+        <v>2.102327868835979</v>
       </c>
       <c r="U27" t="n">
-        <v>24.3852353627568</v>
+        <v>237.2276420366697</v>
       </c>
       <c r="V27" t="n">
-        <v>27.80651424148928</v>
+        <v>236.9968623022582</v>
       </c>
       <c r="W27" t="n">
         <v>266.7045835770116</v>
@@ -2810,7 +2810,7 @@
         <v>134.0546263578406</v>
       </c>
       <c r="I29" t="n">
-        <v>27.69919665366203</v>
+        <v>27.699196653662</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.39786574795406</v>
+        <v>14.39786574795403</v>
       </c>
       <c r="T29" t="n">
-        <v>9.570316145417712</v>
+        <v>9.570316145417683</v>
       </c>
       <c r="U29" t="n">
-        <v>37.30716333125787</v>
+        <v>37.30716333125784</v>
       </c>
       <c r="V29" t="n">
         <v>108.0373769352391</v>
       </c>
       <c r="W29" t="n">
-        <v>125.054057151854</v>
+        <v>125.0540571518539</v>
       </c>
       <c r="X29" t="n">
         <v>146.9403076207932</v>
       </c>
       <c r="Y29" t="n">
-        <v>169.443160744537</v>
+        <v>169.4431607445369</v>
       </c>
     </row>
     <row r="30">
@@ -2886,13 +2886,13 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>125.6727734256474</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>51.86130901229092</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.040069060206893</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>2.102327868836008</v>
+        <v>2.102327868835979</v>
       </c>
       <c r="U30" t="n">
-        <v>24.38523536275683</v>
+        <v>237.2276420366697</v>
       </c>
       <c r="V30" t="n">
-        <v>240.6489209154022</v>
+        <v>27.80651424148928</v>
       </c>
       <c r="W30" t="n">
-        <v>266.7045835770116</v>
+        <v>53.86217690309863</v>
       </c>
       <c r="X30" t="n">
-        <v>4.47050776555767</v>
+        <v>155.7594777538288</v>
       </c>
       <c r="Y30" t="n">
-        <v>94.05945409523412</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.50070788746974</v>
+        <v>22.50070788746971</v>
       </c>
       <c r="T31" t="n">
-        <v>10.89587738504074</v>
+        <v>10.89587738504071</v>
       </c>
       <c r="U31" t="n">
-        <v>75.81385317476285</v>
+        <v>75.81385317476283</v>
       </c>
       <c r="V31" t="n">
-        <v>32.26660851053697</v>
+        <v>32.26660851053694</v>
       </c>
       <c r="W31" t="n">
-        <v>77.46830041542239</v>
+        <v>77.46830041542236</v>
       </c>
       <c r="X31" t="n">
-        <v>9.077048734329594</v>
+        <v>9.077048734329566</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.298866140255484</v>
+        <v>4.298866140255456</v>
       </c>
     </row>
     <row r="32">
@@ -3108,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>159.1723150765785</v>
@@ -3120,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>148.7381070793004</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.040069060206896</v>
+        <v>6.040069060206893</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -3159,13 +3159,13 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>2.10232786883598</v>
+        <v>214.9447345427489</v>
       </c>
       <c r="U33" t="n">
-        <v>24.3852353627568</v>
+        <v>237.2276420366697</v>
       </c>
       <c r="V33" t="n">
-        <v>27.80651424148928</v>
+        <v>71.78447816547275</v>
       </c>
       <c r="W33" t="n">
         <v>53.86217690309863</v>
@@ -3174,7 +3174,7 @@
         <v>4.470507765557642</v>
       </c>
       <c r="Y33" t="n">
-        <v>143.9483981282558</v>
+        <v>10.54187946011265</v>
       </c>
     </row>
     <row r="34">
@@ -3387,13 +3387,13 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>6.040069060206893</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>28.49606927252451</v>
       </c>
       <c r="S36" t="n">
-        <v>34.53613833273139</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>214.9447345427489</v>
@@ -3509,19 +3509,19 @@
         <v>101.7539432481092</v>
       </c>
       <c r="E38" t="n">
-        <v>135.460695667518</v>
+        <v>135.4606956675181</v>
       </c>
       <c r="F38" t="n">
-        <v>167.1810332458953</v>
+        <v>167.1810332458954</v>
       </c>
       <c r="G38" t="n">
         <v>182.8078129750436</v>
       </c>
       <c r="H38" t="n">
-        <v>110.8788166376354</v>
+        <v>110.8788166376355</v>
       </c>
       <c r="I38" t="n">
-        <v>4.523386933456834</v>
+        <v>4.523386933456862</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,10 +3557,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>14.13135361105267</v>
+        <v>14.1313536110527</v>
       </c>
       <c r="V38" t="n">
-        <v>84.86156721503389</v>
+        <v>84.86156721503392</v>
       </c>
       <c r="W38" t="n">
         <v>101.8782474316488</v>
@@ -3588,7 +3588,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>53.24144028737889</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3630,25 +3630,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>191.47010505155</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>214.9447345427489</v>
       </c>
       <c r="U39" t="n">
-        <v>1.209425642551635</v>
+        <v>237.2276420366697</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>4.630704521284144</v>
       </c>
       <c r="W39" t="n">
-        <v>30.68636718289346</v>
+        <v>30.68636718289349</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>76.71606977857797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>52.63804345455765</v>
+        <v>52.63804345455768</v>
       </c>
       <c r="V40" t="n">
-        <v>9.090798790331775</v>
+        <v>9.090798790331803</v>
       </c>
       <c r="W40" t="n">
-        <v>54.2924906952172</v>
+        <v>54.29249069521723</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3828,7 +3828,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>90.3085577989018</v>
+        <v>109.0138597535493</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3876,13 +3876,13 @@
         <v>1.209425642551635</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>4.630704521284116</v>
       </c>
       <c r="W42" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>138.0690239837153</v>
+        <v>138.0690239837152</v>
       </c>
       <c r="C44" t="n">
         <v>114.1872809870607</v>
@@ -3983,19 +3983,19 @@
         <v>101.7539432481092</v>
       </c>
       <c r="E44" t="n">
-        <v>135.4606956675181</v>
+        <v>135.460695667518</v>
       </c>
       <c r="F44" t="n">
-        <v>167.1810332458954</v>
+        <v>167.1810332458953</v>
       </c>
       <c r="G44" t="n">
         <v>182.8078129750436</v>
       </c>
       <c r="H44" t="n">
-        <v>110.8788166376355</v>
+        <v>110.8788166376354</v>
       </c>
       <c r="I44" t="n">
-        <v>4.523386933456891</v>
+        <v>4.523386933456823</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,16 +4031,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>14.13135361105273</v>
+        <v>14.13135361105267</v>
       </c>
       <c r="V44" t="n">
-        <v>84.86156721503394</v>
+        <v>84.86156721503389</v>
       </c>
       <c r="W44" t="n">
         <v>101.8782474316488</v>
       </c>
       <c r="X44" t="n">
-        <v>123.7644979005881</v>
+        <v>123.764497900588</v>
       </c>
       <c r="Y44" t="n">
         <v>146.2673510243318</v>
@@ -4056,13 +4056,13 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>97.78955162994716</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4104,22 +4104,22 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>191.47010505155</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>214.9447345427489</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2276420366697</v>
+        <v>1.209425642551635</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>4.630704521284116</v>
       </c>
       <c r="W45" t="n">
-        <v>108.3396682185741</v>
+        <v>30.68636718289346</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>52.63804345455771</v>
+        <v>52.63804345455765</v>
       </c>
       <c r="V46" t="n">
-        <v>9.090798790331831</v>
+        <v>9.090798790331775</v>
       </c>
       <c r="W46" t="n">
-        <v>54.29249069521725</v>
+        <v>54.2924906952172</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>43.28982994743856</v>
+        <v>265.8047490206352</v>
       </c>
       <c r="C11" t="n">
-        <v>43.28982994743856</v>
+        <v>181.1471786102755</v>
       </c>
       <c r="D11" t="n">
-        <v>43.28982994743856</v>
+        <v>176.0200203972199</v>
       </c>
       <c r="E11" t="n">
-        <v>43.28982994743856</v>
+        <v>176.0200203972199</v>
       </c>
       <c r="F11" t="n">
-        <v>43.28982994743856</v>
+        <v>91.36244998686018</v>
       </c>
       <c r="G11" t="n">
-        <v>43.28982994743856</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="H11" t="n">
-        <v>43.28982994743856</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="I11" t="n">
-        <v>6.704879576500486</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="J11" t="n">
-        <v>6.960910444011319</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="K11" t="n">
-        <v>89.93379520320484</v>
+        <v>55.57893955265297</v>
       </c>
       <c r="L11" t="n">
         <v>138.5518243118465</v>
@@ -5051,40 +5051,40 @@
         <v>221.52470907104</v>
       </c>
       <c r="N11" t="n">
-        <v>298.9977458341231</v>
+        <v>298.9977458341232</v>
       </c>
       <c r="O11" t="n">
-        <v>335.2439788250243</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="P11" t="n">
-        <v>335.2439788250243</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="Q11" t="n">
-        <v>335.2439788250243</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="R11" t="n">
-        <v>335.2439788250243</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="S11" t="n">
         <v>312.0947162376297</v>
       </c>
       <c r="T11" t="n">
-        <v>293.8217663800697</v>
+        <v>312.0947162376297</v>
       </c>
       <c r="U11" t="n">
-        <v>247.5317991630751</v>
+        <v>265.8047490206352</v>
       </c>
       <c r="V11" t="n">
-        <v>212.6049707681579</v>
+        <v>265.8047490206352</v>
       </c>
       <c r="W11" t="n">
-        <v>212.6049707681579</v>
+        <v>265.8047490206352</v>
       </c>
       <c r="X11" t="n">
-        <v>212.6049707681579</v>
+        <v>265.8047490206352</v>
       </c>
       <c r="Y11" t="n">
-        <v>127.9474003577982</v>
+        <v>265.8047490206352</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6.704879576500486</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="C12" t="n">
-        <v>6.704879576500486</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="D12" t="n">
-        <v>6.704879576500486</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="E12" t="n">
-        <v>6.704879576500486</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="F12" t="n">
-        <v>6.704879576500486</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="G12" t="n">
-        <v>6.704879576500486</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="H12" t="n">
-        <v>6.704879576500486</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="I12" t="n">
-        <v>6.704879576500486</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="J12" t="n">
-        <v>6.704879576500486</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="K12" t="n">
-        <v>6.704879576500486</v>
+        <v>45.70690058228109</v>
       </c>
       <c r="L12" t="n">
-        <v>6.704879576500486</v>
+        <v>128.6797853414746</v>
       </c>
       <c r="M12" t="n">
-        <v>89.67776433569401</v>
+        <v>128.6797853414746</v>
       </c>
       <c r="N12" t="n">
-        <v>172.6506490948875</v>
+        <v>169.2982093066373</v>
       </c>
       <c r="O12" t="n">
-        <v>255.623533854081</v>
+        <v>252.2710940658309</v>
       </c>
       <c r="P12" t="n">
-        <v>335.2439788250243</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="Q12" t="n">
-        <v>329.1428989662295</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="R12" t="n">
-        <v>329.1428989662295</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="S12" t="n">
-        <v>329.1428989662295</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="T12" t="n">
-        <v>318.4133716102672</v>
+        <v>324.5144514690621</v>
       </c>
       <c r="U12" t="n">
-        <v>285.1758568867081</v>
+        <v>239.8568810587024</v>
       </c>
       <c r="V12" t="n">
-        <v>239.0322235453667</v>
+        <v>203.1635290838983</v>
       </c>
       <c r="W12" t="n">
-        <v>176.0200203972199</v>
+        <v>118.5059586735386</v>
       </c>
       <c r="X12" t="n">
-        <v>91.36244998686017</v>
+        <v>105.3843304117968</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.704879576500486</v>
+        <v>86.13000346868637</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>33.14340555392489</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="C13" t="n">
-        <v>33.14340555392489</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="D13" t="n">
-        <v>91.6918592414641</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="E13" t="n">
-        <v>91.6918592414641</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="F13" t="n">
-        <v>91.6918592414641</v>
+        <v>71.44654361598108</v>
       </c>
       <c r="G13" t="n">
-        <v>91.6918592414641</v>
+        <v>71.44654361598108</v>
       </c>
       <c r="H13" t="n">
-        <v>91.6918592414641</v>
+        <v>71.44654361598108</v>
       </c>
       <c r="I13" t="n">
-        <v>91.6918592414641</v>
+        <v>71.44654361598108</v>
       </c>
       <c r="J13" t="n">
-        <v>174.6647440006576</v>
+        <v>71.44654361598108</v>
       </c>
       <c r="K13" t="n">
-        <v>215.9144383910221</v>
+        <v>71.44654361598108</v>
       </c>
       <c r="L13" t="n">
-        <v>298.8873231502157</v>
+        <v>154.4194283751746</v>
       </c>
       <c r="M13" t="n">
-        <v>298.8873231502157</v>
+        <v>237.3923131343682</v>
       </c>
       <c r="N13" t="n">
-        <v>298.8873231502157</v>
+        <v>237.3923131343682</v>
       </c>
       <c r="O13" t="n">
-        <v>298.8873231502157</v>
+        <v>298.8873231502158</v>
       </c>
       <c r="P13" t="n">
-        <v>298.8873231502157</v>
+        <v>298.8873231502158</v>
       </c>
       <c r="Q13" t="n">
-        <v>298.8873231502157</v>
+        <v>298.8873231502158</v>
       </c>
       <c r="R13" t="n">
-        <v>298.8873231502157</v>
+        <v>298.8873231502158</v>
       </c>
       <c r="S13" t="n">
-        <v>267.5533715330072</v>
+        <v>267.5533715330073</v>
       </c>
       <c r="T13" t="n">
-        <v>247.9414709283532</v>
+        <v>247.9414709283533</v>
       </c>
       <c r="U13" t="n">
-        <v>163.2839005179935</v>
+        <v>163.2839005179936</v>
       </c>
       <c r="V13" t="n">
         <v>122.0854028168788</v>
       </c>
       <c r="W13" t="n">
-        <v>37.42783240651907</v>
+        <v>37.42783240651913</v>
       </c>
       <c r="X13" t="n">
-        <v>19.65313245914912</v>
+        <v>19.65313245914915</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.704879576500486</v>
+        <v>6.704879576500488</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>212.6049707681577</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="C14" t="n">
-        <v>212.6049707681577</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="D14" t="n">
-        <v>212.6049707681577</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="E14" t="n">
-        <v>212.6049707681577</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="F14" t="n">
-        <v>212.6049707681577</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="G14" t="n">
-        <v>127.947400357798</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="H14" t="n">
-        <v>43.28982994743847</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="I14" t="n">
-        <v>6.704879576500486</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="J14" t="n">
-        <v>6.704879576500486</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="K14" t="n">
-        <v>6.704879576500486</v>
+        <v>6.960910444011361</v>
       </c>
       <c r="L14" t="n">
-        <v>55.32290868514212</v>
+        <v>55.578939552653</v>
       </c>
       <c r="M14" t="n">
-        <v>138.2957934443356</v>
+        <v>138.5518243118465</v>
       </c>
       <c r="N14" t="n">
-        <v>215.7688302074188</v>
+        <v>216.0248610749297</v>
       </c>
       <c r="O14" t="n">
-        <v>252.01506319832</v>
+        <v>252.2710940658309</v>
       </c>
       <c r="P14" t="n">
-        <v>325.1422444635011</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="Q14" t="n">
-        <v>325.1422444635011</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="R14" t="n">
-        <v>335.2439788250243</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="S14" t="n">
-        <v>312.0947162376298</v>
+        <v>312.0947162376297</v>
       </c>
       <c r="T14" t="n">
-        <v>293.8217663800698</v>
+        <v>293.8217663800697</v>
       </c>
       <c r="U14" t="n">
-        <v>247.5317991630754</v>
+        <v>247.5317991630752</v>
       </c>
       <c r="V14" t="n">
-        <v>247.5317991630754</v>
+        <v>162.8742287527155</v>
       </c>
       <c r="W14" t="n">
-        <v>247.5317991630754</v>
+        <v>78.2166583423557</v>
       </c>
       <c r="X14" t="n">
-        <v>212.6049707681577</v>
+        <v>78.2166583423557</v>
       </c>
       <c r="Y14" t="n">
-        <v>212.6049707681577</v>
+        <v>6.704879576500488</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>59.09004019497617</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="C15" t="n">
-        <v>59.09004019497617</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="D15" t="n">
-        <v>59.09004019497617</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="E15" t="n">
-        <v>59.09004019497617</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="F15" t="n">
-        <v>59.09004019497617</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="G15" t="n">
-        <v>59.09004019497617</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="H15" t="n">
-        <v>59.09004019497617</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="I15" t="n">
-        <v>59.09004019497617</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="J15" t="n">
-        <v>6.704879576500486</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="K15" t="n">
-        <v>6.704879576500486</v>
+        <v>45.70690058228109</v>
       </c>
       <c r="L15" t="n">
-        <v>89.67776433569401</v>
+        <v>128.6797853414746</v>
       </c>
       <c r="M15" t="n">
-        <v>172.6506490948875</v>
+        <v>211.6526701006682</v>
       </c>
       <c r="N15" t="n">
-        <v>255.623533854081</v>
+        <v>252.2710940658309</v>
       </c>
       <c r="O15" t="n">
-        <v>335.2439788250243</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="P15" t="n">
-        <v>335.2439788250243</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="Q15" t="n">
-        <v>329.1428989662295</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="R15" t="n">
-        <v>329.1428989662295</v>
+        <v>250.5864084146647</v>
       </c>
       <c r="S15" t="n">
-        <v>329.1428989662295</v>
+        <v>250.5864084146647</v>
       </c>
       <c r="T15" t="n">
-        <v>318.4133716102673</v>
+        <v>239.8568810587024</v>
       </c>
       <c r="U15" t="n">
-        <v>285.1758568867083</v>
+        <v>204.1896333715528</v>
       </c>
       <c r="V15" t="n">
-        <v>239.1357689583346</v>
+        <v>167.4962813967488</v>
       </c>
       <c r="W15" t="n">
-        <v>176.1235658101879</v>
+        <v>104.484078248602</v>
       </c>
       <c r="X15" t="n">
-        <v>163.0019375484462</v>
+        <v>91.36244998686018</v>
       </c>
       <c r="Y15" t="n">
-        <v>143.7476106053359</v>
+        <v>6.704879576500488</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>33.14340555392497</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="C16" t="n">
-        <v>33.14340555392497</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="D16" t="n">
-        <v>33.14340555392497</v>
+        <v>65.25333326403967</v>
       </c>
       <c r="E16" t="n">
-        <v>33.14340555392497</v>
+        <v>65.25333326403967</v>
       </c>
       <c r="F16" t="n">
-        <v>33.14340555392497</v>
+        <v>65.25333326403967</v>
       </c>
       <c r="G16" t="n">
-        <v>33.14340555392497</v>
+        <v>65.25333326403967</v>
       </c>
       <c r="H16" t="n">
-        <v>33.14340555392497</v>
+        <v>65.25333326403967</v>
       </c>
       <c r="I16" t="n">
-        <v>33.14340555392497</v>
+        <v>104.4903462907593</v>
       </c>
       <c r="J16" t="n">
-        <v>33.14340555392497</v>
+        <v>187.4632310499528</v>
       </c>
       <c r="K16" t="n">
-        <v>56.15552503478897</v>
+        <v>187.4632310499528</v>
       </c>
       <c r="L16" t="n">
-        <v>139.1284097939825</v>
+        <v>270.4361158091464</v>
       </c>
       <c r="M16" t="n">
-        <v>139.1284097939825</v>
+        <v>298.8873231502158</v>
       </c>
       <c r="N16" t="n">
-        <v>139.1284097939825</v>
+        <v>298.8873231502158</v>
       </c>
       <c r="O16" t="n">
-        <v>139.1284097939825</v>
+        <v>298.8873231502158</v>
       </c>
       <c r="P16" t="n">
-        <v>222.101294553176</v>
+        <v>298.8873231502158</v>
       </c>
       <c r="Q16" t="n">
-        <v>298.8873231502153</v>
+        <v>298.8873231502158</v>
       </c>
       <c r="R16" t="n">
-        <v>298.8873231502153</v>
+        <v>298.8873231502158</v>
       </c>
       <c r="S16" t="n">
-        <v>267.5533715330068</v>
+        <v>267.5533715330073</v>
       </c>
       <c r="T16" t="n">
-        <v>247.941470928353</v>
+        <v>247.9414709283533</v>
       </c>
       <c r="U16" t="n">
-        <v>163.2839005179933</v>
+        <v>163.2839005179936</v>
       </c>
       <c r="V16" t="n">
-        <v>122.0854028168786</v>
+        <v>122.0854028168788</v>
       </c>
       <c r="W16" t="n">
-        <v>37.4278324065189</v>
+        <v>37.42783240651913</v>
       </c>
       <c r="X16" t="n">
-        <v>19.65313245914903</v>
+        <v>19.65313245914915</v>
       </c>
       <c r="Y16" t="n">
-        <v>6.704879576500486</v>
+        <v>6.704879576500488</v>
       </c>
     </row>
     <row r="17">
@@ -5492,64 +5492,64 @@
         <v>222.9398147825187</v>
       </c>
       <c r="C17" t="n">
-        <v>208.3056920527107</v>
+        <v>208.3056920527108</v>
       </c>
       <c r="D17" t="n">
-        <v>206.2304963319446</v>
+        <v>206.2304963319449</v>
       </c>
       <c r="E17" t="n">
-        <v>170.108075945109</v>
+        <v>170.1080759451081</v>
       </c>
       <c r="F17" t="n">
-        <v>101.9449105296093</v>
+        <v>101.9449105296085</v>
       </c>
       <c r="G17" t="n">
-        <v>17.99711912507089</v>
+        <v>17.99711912507084</v>
       </c>
       <c r="H17" t="n">
-        <v>6.704879576500486</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="I17" t="n">
-        <v>89.67776433569401</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="J17" t="n">
-        <v>89.67776433569401</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="K17" t="n">
-        <v>89.67776433569401</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="L17" t="n">
-        <v>138.2957934443356</v>
+        <v>55.578939552653</v>
       </c>
       <c r="M17" t="n">
-        <v>221.2686782035291</v>
+        <v>138.5518243118465</v>
       </c>
       <c r="N17" t="n">
-        <v>298.7417149666123</v>
+        <v>216.0248610749297</v>
       </c>
       <c r="O17" t="n">
-        <v>334.9879479575135</v>
+        <v>252.2710940658309</v>
       </c>
       <c r="P17" t="n">
-        <v>334.9879479575135</v>
+        <v>252.2710940658309</v>
       </c>
       <c r="Q17" t="n">
-        <v>334.9879479575135</v>
+        <v>252.2710940658309</v>
       </c>
       <c r="R17" t="n">
-        <v>334.9879479575135</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="S17" t="n">
-        <v>334.9879479575135</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="T17" t="n">
-        <v>334.9879479575135</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="U17" t="n">
-        <v>335.2439788250243</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="V17" t="n">
-        <v>335.2439788250243</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="W17" t="n">
         <v>333.0432233229053</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>59.09004019497617</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="C18" t="n">
-        <v>59.09004019497617</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="D18" t="n">
-        <v>59.09004019497617</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="E18" t="n">
-        <v>59.09004019497617</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="F18" t="n">
-        <v>59.09004019497617</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="G18" t="n">
-        <v>59.09004019497617</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="H18" t="n">
-        <v>59.09004019497617</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="I18" t="n">
-        <v>59.09004019497617</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="J18" t="n">
-        <v>6.704879576500486</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="K18" t="n">
-        <v>6.704879576500486</v>
+        <v>45.70690058228109</v>
       </c>
       <c r="L18" t="n">
-        <v>89.67776433569401</v>
+        <v>128.6797853414746</v>
       </c>
       <c r="M18" t="n">
-        <v>172.6506490948875</v>
+        <v>169.2982093066373</v>
       </c>
       <c r="N18" t="n">
-        <v>255.623533854081</v>
+        <v>252.2710940658309</v>
       </c>
       <c r="O18" t="n">
-        <v>335.2439788250243</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="P18" t="n">
-        <v>335.2439788250243</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="Q18" t="n">
-        <v>329.1428989662295</v>
+        <v>329.1428989662296</v>
       </c>
       <c r="R18" t="n">
-        <v>329.1428989662295</v>
+        <v>244.4853285558698</v>
       </c>
       <c r="S18" t="n">
-        <v>244.4853285558698</v>
+        <v>159.8277581455101</v>
       </c>
       <c r="T18" t="n">
-        <v>244.4853285558698</v>
+        <v>159.8277581455101</v>
       </c>
       <c r="U18" t="n">
-        <v>244.4853285558698</v>
+        <v>159.8277581455101</v>
       </c>
       <c r="V18" t="n">
-        <v>228.4051810156955</v>
+        <v>159.8277581455101</v>
       </c>
       <c r="W18" t="n">
-        <v>228.4051810156955</v>
+        <v>159.8277581455101</v>
       </c>
       <c r="X18" t="n">
-        <v>143.7476106053359</v>
+        <v>91.36244998686018</v>
       </c>
       <c r="Y18" t="n">
-        <v>59.09004019497617</v>
+        <v>6.704879576500488</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6.704879576500486</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="C19" t="n">
-        <v>6.704879576500486</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="D19" t="n">
-        <v>6.704879576500486</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="E19" t="n">
-        <v>6.704879576500486</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="F19" t="n">
-        <v>6.704879576500486</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="G19" t="n">
-        <v>6.704879576500486</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="H19" t="n">
-        <v>6.704879576500486</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="I19" t="n">
-        <v>6.704879576500486</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="J19" t="n">
-        <v>6.704879576500486</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="K19" t="n">
-        <v>6.704879576500486</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="L19" t="n">
-        <v>6.704879576500486</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="M19" t="n">
-        <v>6.704879576500486</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="N19" t="n">
-        <v>6.704879576500486</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="O19" t="n">
-        <v>6.704879576500486</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="P19" t="n">
-        <v>6.704879576500486</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="Q19" t="n">
-        <v>6.704879576500486</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="R19" t="n">
-        <v>6.704879576500486</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="S19" t="n">
-        <v>6.704879576500486</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="T19" t="n">
-        <v>6.704879576500486</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="U19" t="n">
-        <v>6.704879576500486</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="V19" t="n">
-        <v>6.704879576500486</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="W19" t="n">
-        <v>6.704879576500486</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="X19" t="n">
-        <v>6.704879576500486</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="Y19" t="n">
-        <v>6.704879576500486</v>
+        <v>6.704879576500488</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>222.9398147825185</v>
+        <v>222.9398147825188</v>
       </c>
       <c r="C20" t="n">
-        <v>208.3056920527105</v>
+        <v>208.3056920527104</v>
       </c>
       <c r="D20" t="n">
-        <v>206.2304963319444</v>
+        <v>206.2304963319443</v>
       </c>
       <c r="E20" t="n">
         <v>170.1080759451087</v>
       </c>
       <c r="F20" t="n">
-        <v>101.9449105296091</v>
+        <v>101.9449105296092</v>
       </c>
       <c r="G20" t="n">
-        <v>17.99711912507089</v>
+        <v>17.99711912507083</v>
       </c>
       <c r="H20" t="n">
-        <v>6.704879576500486</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="I20" t="n">
-        <v>75.24424225638316</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="J20" t="n">
-        <v>75.24424225638316</v>
+        <v>89.67776433569402</v>
       </c>
       <c r="K20" t="n">
-        <v>75.24424225638316</v>
+        <v>89.67776433569402</v>
       </c>
       <c r="L20" t="n">
-        <v>123.8622713650248</v>
+        <v>138.2957934443357</v>
       </c>
       <c r="M20" t="n">
-        <v>206.8351561242183</v>
+        <v>221.2686782035292</v>
       </c>
       <c r="N20" t="n">
-        <v>284.3081928873015</v>
+        <v>298.7417149666123</v>
       </c>
       <c r="O20" t="n">
-        <v>320.5544258782027</v>
+        <v>334.9879479575135</v>
       </c>
       <c r="P20" t="n">
-        <v>320.5544258782027</v>
+        <v>334.9879479575135</v>
       </c>
       <c r="Q20" t="n">
-        <v>320.5544258782027</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="R20" t="n">
-        <v>320.5544258782027</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="S20" t="n">
-        <v>320.5544258782027</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="T20" t="n">
-        <v>320.5544258782027</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="U20" t="n">
-        <v>320.5544258782027</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="V20" t="n">
-        <v>335.2439788250243</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="W20" t="n">
         <v>333.0432233229052</v>
       </c>
       <c r="X20" t="n">
-        <v>308.7351441147867</v>
+        <v>308.7351441147869</v>
       </c>
       <c r="Y20" t="n">
-        <v>261.69691023622</v>
+        <v>261.6969102362202</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>75.17018773515045</v>
+        <v>75.17018773515044</v>
       </c>
       <c r="C21" t="n">
-        <v>75.17018773515045</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="D21" t="n">
-        <v>75.17018773515045</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="E21" t="n">
-        <v>75.17018773515045</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="F21" t="n">
-        <v>75.17018773515045</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="G21" t="n">
-        <v>75.17018773515045</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="H21" t="n">
-        <v>75.17018773515045</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="I21" t="n">
-        <v>6.704879576500486</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="J21" t="n">
-        <v>6.704879576500486</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="K21" t="n">
         <v>45.70690058228109</v>
       </c>
       <c r="L21" t="n">
-        <v>86.3253245474438</v>
+        <v>45.70690058228109</v>
       </c>
       <c r="M21" t="n">
-        <v>86.3253245474438</v>
+        <v>86.32532454744378</v>
       </c>
       <c r="N21" t="n">
         <v>169.2982093066373</v>
       </c>
       <c r="O21" t="n">
-        <v>252.2710940658308</v>
+        <v>252.2710940658309</v>
       </c>
       <c r="P21" t="n">
-        <v>335.2439788250243</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="Q21" t="n">
-        <v>329.1428989662295</v>
+        <v>329.1428989662296</v>
       </c>
       <c r="R21" t="n">
-        <v>329.1428989662295</v>
+        <v>329.1428989662296</v>
       </c>
       <c r="S21" t="n">
-        <v>329.1428989662295</v>
+        <v>329.1428989662296</v>
       </c>
       <c r="T21" t="n">
-        <v>329.1428989662295</v>
+        <v>329.1428989662296</v>
       </c>
       <c r="U21" t="n">
-        <v>329.1428989662295</v>
+        <v>329.1428989662296</v>
       </c>
       <c r="V21" t="n">
-        <v>329.1428989662295</v>
+        <v>244.4853285558698</v>
       </c>
       <c r="W21" t="n">
-        <v>244.4853285558698</v>
+        <v>159.8277581455101</v>
       </c>
       <c r="X21" t="n">
         <v>159.8277581455101</v>
       </c>
       <c r="Y21" t="n">
-        <v>75.17018773515045</v>
+        <v>75.17018773515044</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6.704879576500486</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="C22" t="n">
-        <v>6.704879576500486</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="D22" t="n">
-        <v>6.704879576500486</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="E22" t="n">
-        <v>6.704879576500486</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="F22" t="n">
-        <v>6.704879576500486</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="G22" t="n">
-        <v>6.704879576500486</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="H22" t="n">
-        <v>6.704879576500486</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="I22" t="n">
-        <v>6.704879576500486</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="J22" t="n">
-        <v>6.704879576500486</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="K22" t="n">
-        <v>6.704879576500486</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="L22" t="n">
-        <v>6.704879576500486</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="M22" t="n">
-        <v>6.704879576500486</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="N22" t="n">
-        <v>6.704879576500486</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="O22" t="n">
-        <v>6.704879576500486</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="P22" t="n">
-        <v>6.704879576500486</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="Q22" t="n">
-        <v>6.704879576500486</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="R22" t="n">
-        <v>6.704879576500486</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="S22" t="n">
-        <v>6.704879576500486</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="T22" t="n">
-        <v>6.704879576500486</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="U22" t="n">
-        <v>6.704879576500486</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="V22" t="n">
-        <v>6.704879576500486</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="W22" t="n">
-        <v>6.704879576500486</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="X22" t="n">
-        <v>6.704879576500486</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="Y22" t="n">
-        <v>6.704879576500486</v>
+        <v>6.704879576500488</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>222.9398147825187</v>
+        <v>222.9398147825186</v>
       </c>
       <c r="C23" t="n">
-        <v>208.3056920527108</v>
+        <v>208.3056920527105</v>
       </c>
       <c r="D23" t="n">
-        <v>206.2304963319446</v>
+        <v>206.2304963319447</v>
       </c>
       <c r="E23" t="n">
-        <v>170.108075945109</v>
+        <v>170.1080759451092</v>
       </c>
       <c r="F23" t="n">
-        <v>101.9449105296092</v>
+        <v>101.9449105296096</v>
       </c>
       <c r="G23" t="n">
-        <v>17.99711912507089</v>
+        <v>17.99711912507083</v>
       </c>
       <c r="H23" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="I23" t="n">
-        <v>89.67776433569405</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="J23" t="n">
-        <v>89.67776433569405</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="K23" t="n">
-        <v>89.67776433569405</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="L23" t="n">
+        <v>55.32290868514212</v>
+      </c>
+      <c r="M23" t="n">
         <v>138.2957934443357</v>
       </c>
-      <c r="M23" t="n">
+      <c r="N23" t="n">
         <v>221.2686782035292</v>
       </c>
-      <c r="N23" t="n">
-        <v>298.7417149666124</v>
-      </c>
       <c r="O23" t="n">
-        <v>334.9879479575136</v>
+        <v>257.5149111944304</v>
       </c>
       <c r="P23" t="n">
-        <v>334.9879479575136</v>
+        <v>257.5149111944304</v>
       </c>
       <c r="Q23" t="n">
-        <v>335.2439788250245</v>
+        <v>320.5544258782027</v>
       </c>
       <c r="R23" t="n">
-        <v>335.2439788250245</v>
+        <v>320.5544258782027</v>
       </c>
       <c r="S23" t="n">
-        <v>335.2439788250245</v>
+        <v>320.5544258782027</v>
       </c>
       <c r="T23" t="n">
-        <v>335.2439788250245</v>
+        <v>320.5544258782027</v>
       </c>
       <c r="U23" t="n">
-        <v>335.2439788250245</v>
+        <v>320.5544258782027</v>
       </c>
       <c r="V23" t="n">
-        <v>335.2439788250245</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="W23" t="n">
-        <v>333.0432233229053</v>
+        <v>333.043223322905</v>
       </c>
       <c r="X23" t="n">
-        <v>308.7351441147869</v>
+        <v>308.7351441147867</v>
       </c>
       <c r="Y23" t="n">
-        <v>261.6969102362202</v>
+        <v>261.69691023622</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>250.5864084146648</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="C24" t="n">
-        <v>250.5864084146648</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="D24" t="n">
-        <v>250.5864084146648</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="E24" t="n">
-        <v>228.4051810156956</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="F24" t="n">
-        <v>143.7476106053359</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="G24" t="n">
-        <v>143.7476106053359</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="H24" t="n">
-        <v>143.7476106053359</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="I24" t="n">
-        <v>59.09004019497617</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="J24" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="K24" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="L24" t="n">
-        <v>89.67776433569405</v>
+        <v>89.67776433569402</v>
       </c>
       <c r="M24" t="n">
         <v>172.6506490948876</v>
       </c>
       <c r="N24" t="n">
-        <v>172.6506490948876</v>
+        <v>252.2710940658309</v>
       </c>
       <c r="O24" t="n">
-        <v>252.2710940658309</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="P24" t="n">
-        <v>335.2439788250245</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="Q24" t="n">
-        <v>335.2439788250245</v>
+        <v>335.2439788250244</v>
       </c>
       <c r="R24" t="n">
-        <v>250.5864084146648</v>
+        <v>250.5864084146647</v>
       </c>
       <c r="S24" t="n">
-        <v>250.5864084146648</v>
+        <v>250.5864084146647</v>
       </c>
       <c r="T24" t="n">
-        <v>250.5864084146648</v>
+        <v>176.0200203972199</v>
       </c>
       <c r="U24" t="n">
-        <v>250.5864084146648</v>
+        <v>91.36244998686018</v>
       </c>
       <c r="V24" t="n">
-        <v>250.5864084146648</v>
+        <v>91.36244998686018</v>
       </c>
       <c r="W24" t="n">
-        <v>250.5864084146648</v>
+        <v>91.36244998686018</v>
       </c>
       <c r="X24" t="n">
-        <v>250.5864084146648</v>
+        <v>91.36244998686018</v>
       </c>
       <c r="Y24" t="n">
-        <v>250.5864084146648</v>
+        <v>6.704879576500488</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="C25" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="D25" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="E25" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="F25" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="G25" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="H25" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="I25" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="J25" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="K25" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="L25" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="M25" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="N25" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="O25" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="P25" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="R25" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="S25" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="T25" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="U25" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="V25" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="W25" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="X25" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500488</v>
       </c>
       <c r="Y25" t="n">
-        <v>6.70487957650049</v>
+        <v>6.704879576500488</v>
       </c>
     </row>
     <row r="26">
@@ -6200,52 +6200,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1025.008801653035</v>
+        <v>1025.008801653036</v>
       </c>
       <c r="C26" t="n">
-        <v>886.2582049790292</v>
+        <v>886.2582049790296</v>
       </c>
       <c r="D26" t="n">
-        <v>760.0665353140652</v>
+        <v>760.0665353140661</v>
       </c>
       <c r="E26" t="n">
-        <v>599.8276409830316</v>
+        <v>599.8276409830326</v>
       </c>
       <c r="F26" t="n">
-        <v>407.5480016233341</v>
+        <v>407.548001623335</v>
       </c>
       <c r="G26" t="n">
-        <v>199.483736274598</v>
+        <v>199.4837362745981</v>
       </c>
       <c r="H26" t="n">
-        <v>64.07502278182969</v>
+        <v>64.07502278182987</v>
       </c>
       <c r="I26" t="n">
         <v>36.09603626297936</v>
       </c>
       <c r="J26" t="n">
-        <v>171.816581689731</v>
+        <v>171.8165816897311</v>
       </c>
       <c r="K26" t="n">
-        <v>377.3999075957675</v>
+        <v>377.3999075957676</v>
       </c>
       <c r="L26" t="n">
-        <v>636.7319193115829</v>
+        <v>636.7319193115831</v>
       </c>
       <c r="M26" t="n">
-        <v>930.4187866779503</v>
+        <v>930.4187866779508</v>
       </c>
       <c r="N26" t="n">
-        <v>1218.605806048207</v>
+        <v>1218.605806048208</v>
       </c>
       <c r="O26" t="n">
-        <v>1465.566021646282</v>
+        <v>1465.566021646283</v>
       </c>
       <c r="P26" t="n">
-        <v>1663.067752909547</v>
+        <v>1663.067752909548</v>
       </c>
       <c r="Q26" t="n">
-        <v>1786.265373616013</v>
+        <v>1786.265373616014</v>
       </c>
       <c r="R26" t="n">
         <v>1804.801813148968</v>
@@ -6257,7 +6257,7 @@
         <v>1780.591528408188</v>
       </c>
       <c r="U26" t="n">
-        <v>1742.907525043281</v>
+        <v>1742.907525043282</v>
       </c>
       <c r="V26" t="n">
         <v>1633.778861472333</v>
@@ -6266,7 +6266,7 @@
         <v>1507.461632026016</v>
       </c>
       <c r="X26" t="n">
-        <v>1359.037078873699</v>
+        <v>1359.0370788737</v>
       </c>
       <c r="Y26" t="n">
         <v>1187.882371050935</v>
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>47.89419176703203</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="C27" t="n">
-        <v>47.89419176703203</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="D27" t="n">
-        <v>47.89419176703203</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="E27" t="n">
-        <v>47.89419176703203</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="F27" t="n">
-        <v>47.89419176703203</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="G27" t="n">
-        <v>47.89419176703203</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="H27" t="n">
-        <v>47.89419176703203</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="I27" t="n">
-        <v>47.89419176703203</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="J27" t="n">
         <v>36.09603626297936</v>
@@ -6324,31 +6324,31 @@
         <v>801.7968473846419</v>
       </c>
       <c r="Q27" t="n">
-        <v>795.695767525847</v>
+        <v>801.7968473846419</v>
       </c>
       <c r="R27" t="n">
-        <v>795.695767525847</v>
+        <v>801.7968473846419</v>
       </c>
       <c r="S27" t="n">
-        <v>602.2916210091299</v>
+        <v>801.7968473846419</v>
       </c>
       <c r="T27" t="n">
-        <v>385.1757275316057</v>
+        <v>799.6732838807671</v>
       </c>
       <c r="U27" t="n">
-        <v>360.5441766601342</v>
+        <v>560.0494030356462</v>
       </c>
       <c r="V27" t="n">
-        <v>332.4567885374178</v>
+        <v>320.6586330333651</v>
       </c>
       <c r="W27" t="n">
-        <v>63.05821926770909</v>
+        <v>51.26006376365643</v>
       </c>
       <c r="X27" t="n">
-        <v>58.54255485805491</v>
+        <v>46.74439935400224</v>
       </c>
       <c r="Y27" t="n">
-        <v>47.89419176703203</v>
+        <v>36.09603626297936</v>
       </c>
     </row>
     <row r="28">
@@ -6358,52 +6358,52 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>50.0537095634314</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="C28" t="n">
-        <v>50.0537095634314</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="D28" t="n">
-        <v>50.0537095634314</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="E28" t="n">
-        <v>50.0537095634314</v>
+        <v>106.5506390700504</v>
       </c>
       <c r="F28" t="n">
-        <v>123.230078774343</v>
+        <v>106.5506390700504</v>
       </c>
       <c r="G28" t="n">
-        <v>166.9356869296362</v>
+        <v>131.0342229009788</v>
       </c>
       <c r="H28" t="n">
-        <v>213.5314620953106</v>
+        <v>131.0342229009788</v>
       </c>
       <c r="I28" t="n">
-        <v>261.2031802934612</v>
+        <v>178.7059410991295</v>
       </c>
       <c r="J28" t="n">
-        <v>261.2031802934612</v>
+        <v>270.7639779274415</v>
       </c>
       <c r="K28" t="n">
-        <v>261.2031802934612</v>
+        <v>270.7639779274415</v>
       </c>
       <c r="L28" t="n">
-        <v>261.2031802934612</v>
+        <v>270.7639779274415</v>
       </c>
       <c r="M28" t="n">
-        <v>261.2031802934612</v>
+        <v>270.7639779274415</v>
       </c>
       <c r="N28" t="n">
-        <v>261.2031802934612</v>
+        <v>270.7639779274415</v>
       </c>
       <c r="O28" t="n">
-        <v>261.2031802934612</v>
+        <v>270.7639779274415</v>
       </c>
       <c r="P28" t="n">
-        <v>261.2031802934612</v>
+        <v>270.7639779274415</v>
       </c>
       <c r="Q28" t="n">
-        <v>261.2031802934612</v>
+        <v>270.7639779274415</v>
       </c>
       <c r="R28" t="n">
         <v>270.7639779274415</v>
@@ -6440,40 +6440,40 @@
         <v>1025.008801653035</v>
       </c>
       <c r="C29" t="n">
-        <v>886.2582049790287</v>
+        <v>886.2582049790292</v>
       </c>
       <c r="D29" t="n">
-        <v>760.0665353140647</v>
+        <v>760.0665353140652</v>
       </c>
       <c r="E29" t="n">
-        <v>599.8276409830312</v>
+        <v>599.8276409830316</v>
       </c>
       <c r="F29" t="n">
-        <v>407.5480016233336</v>
+        <v>407.5480016233341</v>
       </c>
       <c r="G29" t="n">
-        <v>199.4837362745982</v>
+        <v>199.483736274598</v>
       </c>
       <c r="H29" t="n">
-        <v>64.0750227818299</v>
+        <v>64.07502278182987</v>
       </c>
       <c r="I29" t="n">
         <v>36.09603626297936</v>
       </c>
       <c r="J29" t="n">
-        <v>171.816581689731</v>
+        <v>171.8165816897315</v>
       </c>
       <c r="K29" t="n">
-        <v>377.3999075957674</v>
+        <v>377.399907595768</v>
       </c>
       <c r="L29" t="n">
-        <v>636.7319193115829</v>
+        <v>636.7319193115835</v>
       </c>
       <c r="M29" t="n">
-        <v>930.4187866779503</v>
+        <v>930.4187866779508</v>
       </c>
       <c r="N29" t="n">
-        <v>1218.605806048207</v>
+        <v>1218.605806048208</v>
       </c>
       <c r="O29" t="n">
         <v>1465.566021646283</v>
@@ -6506,7 +6506,7 @@
         <v>1359.037078873699</v>
       </c>
       <c r="Y29" t="n">
-        <v>1187.882371050934</v>
+        <v>1187.882371050935</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>163.0382316424212</v>
+        <v>88.48119688145505</v>
       </c>
       <c r="C30" t="n">
-        <v>163.0382316424212</v>
+        <v>88.48119688145505</v>
       </c>
       <c r="D30" t="n">
-        <v>163.0382316424212</v>
+        <v>88.48119688145505</v>
       </c>
       <c r="E30" t="n">
-        <v>163.0382316424212</v>
+        <v>88.48119688145505</v>
       </c>
       <c r="F30" t="n">
-        <v>163.0382316424212</v>
+        <v>88.48119688145505</v>
       </c>
       <c r="G30" t="n">
-        <v>163.0382316424212</v>
+        <v>88.48119688145505</v>
       </c>
       <c r="H30" t="n">
-        <v>36.09603626297936</v>
+        <v>88.48119688145505</v>
       </c>
       <c r="I30" t="n">
-        <v>36.09603626297936</v>
+        <v>88.48119688145505</v>
       </c>
       <c r="J30" t="n">
         <v>36.09603626297936</v>
@@ -6561,31 +6561,31 @@
         <v>801.7968473846419</v>
       </c>
       <c r="Q30" t="n">
-        <v>801.7968473846419</v>
+        <v>795.695767525847</v>
       </c>
       <c r="R30" t="n">
-        <v>801.7968473846419</v>
+        <v>795.695767525847</v>
       </c>
       <c r="S30" t="n">
-        <v>801.7968473846419</v>
+        <v>795.695767525847</v>
       </c>
       <c r="T30" t="n">
-        <v>799.6732838807671</v>
+        <v>793.5722040219723</v>
       </c>
       <c r="U30" t="n">
-        <v>775.0417330092956</v>
+        <v>553.9483231768513</v>
       </c>
       <c r="V30" t="n">
-        <v>531.9620149129297</v>
+        <v>525.8609350541349</v>
       </c>
       <c r="W30" t="n">
-        <v>262.563445643221</v>
+        <v>471.4546957580757</v>
       </c>
       <c r="X30" t="n">
-        <v>258.0477812335668</v>
+        <v>314.1218899461274</v>
       </c>
       <c r="Y30" t="n">
-        <v>163.0382316424212</v>
+        <v>88.48119688145505</v>
       </c>
     </row>
     <row r="31">
@@ -6601,67 +6601,67 @@
         <v>36.09603626297936</v>
       </c>
       <c r="D31" t="n">
-        <v>103.0791951219496</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="E31" t="n">
-        <v>103.0791951219496</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="F31" t="n">
-        <v>103.0791951219496</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="G31" t="n">
-        <v>103.0791951219496</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="H31" t="n">
-        <v>103.0791951219496</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="I31" t="n">
-        <v>103.0791951219496</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="J31" t="n">
-        <v>103.0791951219496</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="K31" t="n">
-        <v>103.0791951219496</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="L31" t="n">
-        <v>103.0791951219496</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="M31" t="n">
-        <v>103.0791951219496</v>
+        <v>75.57971696347167</v>
       </c>
       <c r="N31" t="n">
-        <v>117.2915825341743</v>
+        <v>270.7639779274415</v>
       </c>
       <c r="O31" t="n">
-        <v>117.2915825341743</v>
+        <v>270.7639779274415</v>
       </c>
       <c r="P31" t="n">
-        <v>270.7639779274418</v>
+        <v>270.7639779274415</v>
       </c>
       <c r="Q31" t="n">
-        <v>270.7639779274418</v>
+        <v>270.7639779274415</v>
       </c>
       <c r="R31" t="n">
-        <v>270.7639779274418</v>
+        <v>270.7639779274415</v>
       </c>
       <c r="S31" t="n">
-        <v>248.0359901623208</v>
+        <v>248.0359901623206</v>
       </c>
       <c r="T31" t="n">
-        <v>237.0300534097544</v>
+        <v>237.0300534097543</v>
       </c>
       <c r="U31" t="n">
-        <v>160.4504037382768</v>
+        <v>160.4504037382767</v>
       </c>
       <c r="V31" t="n">
         <v>127.8578698892495</v>
       </c>
       <c r="W31" t="n">
-        <v>49.60706138882288</v>
+        <v>49.60706138882282</v>
       </c>
       <c r="X31" t="n">
-        <v>40.43832529354046</v>
+        <v>40.43832529354043</v>
       </c>
       <c r="Y31" t="n">
         <v>36.09603626297936</v>
@@ -6674,46 +6674,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1025.008801653035</v>
+        <v>1025.008801653036</v>
       </c>
       <c r="C32" t="n">
-        <v>886.2582049790292</v>
+        <v>886.2582049790299</v>
       </c>
       <c r="D32" t="n">
-        <v>760.0665353140652</v>
+        <v>760.0665353140658</v>
       </c>
       <c r="E32" t="n">
-        <v>599.8276409830316</v>
+        <v>599.8276409830323</v>
       </c>
       <c r="F32" t="n">
-        <v>407.5480016233341</v>
+        <v>407.5480016233348</v>
       </c>
       <c r="G32" t="n">
-        <v>199.483736274598</v>
+        <v>199.4837362745986</v>
       </c>
       <c r="H32" t="n">
-        <v>64.07502278182987</v>
+        <v>64.07502278183037</v>
       </c>
       <c r="I32" t="n">
         <v>36.09603626297936</v>
       </c>
       <c r="J32" t="n">
-        <v>171.8165816897311</v>
+        <v>171.816581689731</v>
       </c>
       <c r="K32" t="n">
-        <v>377.3999075957676</v>
+        <v>377.3999075957675</v>
       </c>
       <c r="L32" t="n">
-        <v>636.7319193115831</v>
+        <v>636.7319193115836</v>
       </c>
       <c r="M32" t="n">
-        <v>930.4187866779504</v>
+        <v>930.4187866779508</v>
       </c>
       <c r="N32" t="n">
-        <v>1218.605806048207</v>
+        <v>1218.605806048208</v>
       </c>
       <c r="O32" t="n">
-        <v>1465.566021646282</v>
+        <v>1465.566021646283</v>
       </c>
       <c r="P32" t="n">
         <v>1663.067752909548</v>
@@ -6731,16 +6731,16 @@
         <v>1780.591528408188</v>
       </c>
       <c r="U32" t="n">
-        <v>1742.907525043281</v>
+        <v>1742.907525043282</v>
       </c>
       <c r="V32" t="n">
-        <v>1633.778861472332</v>
+        <v>1633.778861472333</v>
       </c>
       <c r="W32" t="n">
-        <v>1507.461632026015</v>
+        <v>1507.461632026016</v>
       </c>
       <c r="X32" t="n">
-        <v>1359.037078873699</v>
+        <v>1359.0370788737</v>
       </c>
       <c r="Y32" t="n">
         <v>1187.882371050935</v>
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>536.5289389702974</v>
+        <v>196.8761525019476</v>
       </c>
       <c r="C33" t="n">
-        <v>347.1166647032611</v>
+        <v>196.8761525019476</v>
       </c>
       <c r="D33" t="n">
-        <v>186.3365484642929</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="E33" t="n">
-        <v>186.3365484642929</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="F33" t="n">
-        <v>186.3365484642929</v>
+        <v>36.09603626297936</v>
       </c>
       <c r="G33" t="n">
         <v>36.09603626297936</v>
@@ -6807,22 +6807,22 @@
         <v>795.695767525847</v>
       </c>
       <c r="T33" t="n">
-        <v>793.5722040219723</v>
+        <v>578.5798740483228</v>
       </c>
       <c r="U33" t="n">
-        <v>768.9406531505008</v>
+        <v>338.9559932032018</v>
       </c>
       <c r="V33" t="n">
-        <v>740.8532650277843</v>
+        <v>266.4464192986839</v>
       </c>
       <c r="W33" t="n">
-        <v>686.4470257317251</v>
+        <v>212.0401800026247</v>
       </c>
       <c r="X33" t="n">
-        <v>681.931361322071</v>
+        <v>207.5245155929705</v>
       </c>
       <c r="Y33" t="n">
-        <v>536.5289389702974</v>
+        <v>196.8761525019476</v>
       </c>
     </row>
     <row r="34">
@@ -6847,28 +6847,28 @@
         <v>36.09603626297936</v>
       </c>
       <c r="G34" t="n">
-        <v>36.09603626297936</v>
+        <v>79.8016444182725</v>
       </c>
       <c r="H34" t="n">
-        <v>36.09603626297936</v>
+        <v>79.8016444182725</v>
       </c>
       <c r="I34" t="n">
-        <v>36.09603626297936</v>
+        <v>79.8016444182725</v>
       </c>
       <c r="J34" t="n">
-        <v>36.09603626297936</v>
+        <v>79.8016444182725</v>
       </c>
       <c r="K34" t="n">
-        <v>181.0768752440212</v>
+        <v>79.8016444182725</v>
       </c>
       <c r="L34" t="n">
-        <v>270.7639779274415</v>
+        <v>259.4870802216418</v>
       </c>
       <c r="M34" t="n">
-        <v>270.7639779274415</v>
+        <v>259.4870802216418</v>
       </c>
       <c r="N34" t="n">
-        <v>270.7639779274415</v>
+        <v>259.4870802216418</v>
       </c>
       <c r="O34" t="n">
         <v>270.7639779274415</v>
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>854.4345604185187</v>
+        <v>854.4345604185189</v>
       </c>
       <c r="C35" t="n">
-        <v>739.0938725528006</v>
+        <v>739.0938725528007</v>
       </c>
       <c r="D35" t="n">
-        <v>636.3121116961246</v>
+        <v>636.3121116961247</v>
       </c>
       <c r="E35" t="n">
-        <v>499.4831261733791</v>
+        <v>499.4831261733792</v>
       </c>
       <c r="F35" t="n">
-        <v>330.6133956219696</v>
+        <v>330.6133956219697</v>
       </c>
       <c r="G35" t="n">
-        <v>145.9590390815215</v>
+        <v>145.9590390815217</v>
       </c>
       <c r="H35" t="n">
         <v>33.96023439704136</v>
@@ -6935,34 +6935,34 @@
         <v>29.39115668647887</v>
       </c>
       <c r="J35" t="n">
-        <v>98.17665516946843</v>
+        <v>153.1265849644649</v>
       </c>
       <c r="K35" t="n">
-        <v>326.704032698508</v>
+        <v>381.6539624935044</v>
       </c>
       <c r="L35" t="n">
-        <v>608.9800960373266</v>
+        <v>430.271991602146</v>
       </c>
       <c r="M35" t="n">
-        <v>925.611015026697</v>
+        <v>746.9029105915165</v>
       </c>
       <c r="N35" t="n">
-        <v>1003.08405178978</v>
+        <v>824.3759473545997</v>
       </c>
       <c r="O35" t="n">
-        <v>1039.330284780681</v>
+        <v>1094.280214575678</v>
       </c>
       <c r="P35" t="n">
-        <v>1259.77606766695</v>
+        <v>1314.725997461946</v>
       </c>
       <c r="Q35" t="n">
-        <v>1405.917739996418</v>
+        <v>1460.867669791415</v>
       </c>
       <c r="R35" t="n">
-        <v>1447.398231152376</v>
+        <v>1460.867669791415</v>
       </c>
       <c r="S35" t="n">
-        <v>1456.088395684904</v>
+        <v>1469.557834323944</v>
       </c>
       <c r="T35" t="n">
         <v>1469.557834323944</v>
@@ -6980,7 +6980,7 @@
         <v>1141.643020022607</v>
       </c>
       <c r="Y35" t="n">
-        <v>993.89822100813</v>
+        <v>993.8982210081305</v>
       </c>
     </row>
     <row r="36">
@@ -7017,7 +7017,7 @@
         <v>29.39115668647887</v>
       </c>
       <c r="K36" t="n">
-        <v>68.39317769225947</v>
+        <v>68.39317769225948</v>
       </c>
       <c r="L36" t="n">
         <v>187.1227504174777</v>
@@ -7035,10 +7035,10 @@
         <v>795.0919678081414</v>
       </c>
       <c r="Q36" t="n">
-        <v>795.0919678081414</v>
+        <v>788.9908879493465</v>
       </c>
       <c r="R36" t="n">
-        <v>795.0919678081414</v>
+        <v>760.2069795932612</v>
       </c>
       <c r="S36" t="n">
         <v>760.2069795932612</v>
@@ -7087,37 +7087,37 @@
         <v>29.39115668647887</v>
       </c>
       <c r="H37" t="n">
-        <v>75.96865246139249</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="I37" t="n">
-        <v>146.5844222825463</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="J37" t="n">
-        <v>146.5844222825463</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="K37" t="n">
-        <v>146.5844222825463</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="L37" t="n">
-        <v>146.5844222825463</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="M37" t="n">
-        <v>146.5844222825463</v>
+        <v>145.9160714681382</v>
       </c>
       <c r="N37" t="n">
-        <v>146.5844222825463</v>
+        <v>145.9160714681382</v>
       </c>
       <c r="O37" t="n">
-        <v>146.5844222825463</v>
+        <v>145.9160714681382</v>
       </c>
       <c r="P37" t="n">
-        <v>146.5844222825463</v>
+        <v>145.9160714681382</v>
       </c>
       <c r="Q37" t="n">
-        <v>146.5844222825463</v>
+        <v>145.9160714681382</v>
       </c>
       <c r="R37" t="n">
-        <v>146.5844222825463</v>
+        <v>145.9160714681382</v>
       </c>
       <c r="S37" t="n">
         <v>146.5844222825463</v>
@@ -7148,58 +7148,58 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>854.4345604185191</v>
+        <v>854.4345604185185</v>
       </c>
       <c r="C38" t="n">
-        <v>739.0938725528013</v>
+        <v>739.0938725528005</v>
       </c>
       <c r="D38" t="n">
-        <v>636.3121116961254</v>
+        <v>636.3121116961247</v>
       </c>
       <c r="E38" t="n">
-        <v>499.4831261733796</v>
+        <v>499.4831261733791</v>
       </c>
       <c r="F38" t="n">
-        <v>330.6133956219701</v>
+        <v>330.6133956219696</v>
       </c>
       <c r="G38" t="n">
-        <v>145.9590390815216</v>
+        <v>145.9590390815215</v>
       </c>
       <c r="H38" t="n">
-        <v>33.96023439704133</v>
+        <v>33.96023439704136</v>
       </c>
       <c r="I38" t="n">
         <v>29.39115668647887</v>
       </c>
       <c r="J38" t="n">
-        <v>188.0557537362337</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="K38" t="n">
-        <v>326.7040326985075</v>
+        <v>257.9185342155184</v>
       </c>
       <c r="L38" t="n">
-        <v>375.3220618071491</v>
+        <v>540.194597554337</v>
       </c>
       <c r="M38" t="n">
-        <v>691.9529807965196</v>
+        <v>851.564091765028</v>
       </c>
       <c r="N38" t="n">
-        <v>769.4260175596027</v>
+        <v>1162.695162758288</v>
       </c>
       <c r="O38" t="n">
-        <v>1039.330284780681</v>
+        <v>1198.941395749189</v>
       </c>
       <c r="P38" t="n">
-        <v>1259.776067666949</v>
+        <v>1419.387178635458</v>
       </c>
       <c r="Q38" t="n">
-        <v>1405.917739996418</v>
+        <v>1419.387178635458</v>
       </c>
       <c r="R38" t="n">
-        <v>1447.398231152375</v>
+        <v>1460.867669791415</v>
       </c>
       <c r="S38" t="n">
-        <v>1456.088395684904</v>
+        <v>1469.557834323944</v>
       </c>
       <c r="T38" t="n">
         <v>1469.557834323944</v>
@@ -7214,10 +7214,10 @@
         <v>1266.657664366635</v>
       </c>
       <c r="X38" t="n">
-        <v>1141.643020022607</v>
+        <v>1141.643020022606</v>
       </c>
       <c r="Y38" t="n">
-        <v>993.8982210081305</v>
+        <v>993.8982210081298</v>
       </c>
     </row>
     <row r="39">
@@ -7227,13 +7227,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>29.39115668647887</v>
+        <v>83.17038929999291</v>
       </c>
       <c r="C39" t="n">
-        <v>29.39115668647887</v>
+        <v>83.17038929999291</v>
       </c>
       <c r="D39" t="n">
-        <v>29.39115668647887</v>
+        <v>83.17038929999291</v>
       </c>
       <c r="E39" t="n">
         <v>29.39115668647887</v>
@@ -7254,7 +7254,7 @@
         <v>29.39115668647887</v>
       </c>
       <c r="K39" t="n">
-        <v>68.39317769225947</v>
+        <v>68.39317769225948</v>
       </c>
       <c r="L39" t="n">
         <v>187.1227504174777</v>
@@ -7278,25 +7278,25 @@
         <v>795.0919678081414</v>
       </c>
       <c r="S39" t="n">
-        <v>601.6878212914243</v>
+        <v>795.0919678081414</v>
       </c>
       <c r="T39" t="n">
-        <v>601.6878212914243</v>
+        <v>577.9760743306172</v>
       </c>
       <c r="U39" t="n">
-        <v>600.4661792282408</v>
+        <v>338.3521934854962</v>
       </c>
       <c r="V39" t="n">
-        <v>357.3864611318749</v>
+        <v>333.6747141710678</v>
       </c>
       <c r="W39" t="n">
-        <v>326.3901306441037</v>
+        <v>302.6783836832965</v>
       </c>
       <c r="X39" t="n">
-        <v>106.8821362608001</v>
+        <v>83.17038929999291</v>
       </c>
       <c r="Y39" t="n">
-        <v>29.39115668647887</v>
+        <v>83.17038929999291</v>
       </c>
     </row>
     <row r="40">
@@ -7306,67 +7306,67 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>105.8966136024876</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="C40" t="n">
-        <v>146.5844222825462</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="D40" t="n">
-        <v>146.5844222825462</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="E40" t="n">
-        <v>146.5844222825462</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="F40" t="n">
-        <v>146.5844222825462</v>
+        <v>125.5115775203936</v>
       </c>
       <c r="G40" t="n">
-        <v>146.5844222825462</v>
+        <v>125.5115775203936</v>
       </c>
       <c r="H40" t="n">
-        <v>146.5844222825462</v>
+        <v>125.5115775203936</v>
       </c>
       <c r="I40" t="n">
-        <v>146.5844222825462</v>
+        <v>125.5115775203936</v>
       </c>
       <c r="J40" t="n">
-        <v>146.5844222825462</v>
+        <v>125.5115775203936</v>
       </c>
       <c r="K40" t="n">
-        <v>146.5844222825462</v>
+        <v>125.5115775203936</v>
       </c>
       <c r="L40" t="n">
-        <v>146.5844222825462</v>
+        <v>125.5115775203936</v>
       </c>
       <c r="M40" t="n">
-        <v>146.5844222825462</v>
+        <v>125.5115775203936</v>
       </c>
       <c r="N40" t="n">
-        <v>146.5844222825462</v>
+        <v>125.5115775203936</v>
       </c>
       <c r="O40" t="n">
-        <v>146.5844222825462</v>
+        <v>125.5115775203936</v>
       </c>
       <c r="P40" t="n">
-        <v>146.5844222825462</v>
+        <v>146.5844222825463</v>
       </c>
       <c r="Q40" t="n">
-        <v>146.5844222825462</v>
+        <v>146.5844222825463</v>
       </c>
       <c r="R40" t="n">
-        <v>146.5844222825462</v>
+        <v>146.5844222825463</v>
       </c>
       <c r="S40" t="n">
-        <v>146.5844222825462</v>
+        <v>146.5844222825463</v>
       </c>
       <c r="T40" t="n">
-        <v>146.5844222825462</v>
+        <v>146.5844222825463</v>
       </c>
       <c r="U40" t="n">
-        <v>93.41468141935663</v>
+        <v>93.41468141935668</v>
       </c>
       <c r="V40" t="n">
-        <v>84.23205637861746</v>
+        <v>84.23205637861749</v>
       </c>
       <c r="W40" t="n">
         <v>29.39115668647887</v>
@@ -7375,7 +7375,7 @@
         <v>29.39115668647887</v>
       </c>
       <c r="Y40" t="n">
-        <v>48.07933083062909</v>
+        <v>29.39115668647887</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>854.4345604185185</v>
+        <v>854.4345604185187</v>
       </c>
       <c r="C41" t="n">
-        <v>739.0938725528006</v>
+        <v>739.0938725528008</v>
       </c>
       <c r="D41" t="n">
-        <v>636.3121116961246</v>
+        <v>636.3121116961249</v>
       </c>
       <c r="E41" t="n">
-        <v>499.4831261733791</v>
+        <v>499.4831261733793</v>
       </c>
       <c r="F41" t="n">
-        <v>330.6133956219696</v>
+        <v>330.61339562197</v>
       </c>
       <c r="G41" t="n">
         <v>145.9590390815216</v>
@@ -7412,16 +7412,16 @@
         <v>188.0557537362337</v>
       </c>
       <c r="K41" t="n">
-        <v>416.5831312652733</v>
+        <v>326.7040326985075</v>
       </c>
       <c r="L41" t="n">
-        <v>465.2011603739149</v>
+        <v>375.3220618071491</v>
       </c>
       <c r="M41" t="n">
         <v>691.9529807965196</v>
       </c>
       <c r="N41" t="n">
-        <v>1003.08405178978</v>
+        <v>769.4260175596027</v>
       </c>
       <c r="O41" t="n">
         <v>1039.330284780681</v>
@@ -7442,7 +7442,7 @@
         <v>1469.557834323944</v>
       </c>
       <c r="U41" t="n">
-        <v>1455.283739767324</v>
+        <v>1455.283739767325</v>
       </c>
       <c r="V41" t="n">
         <v>1369.564985004664</v>
@@ -7451,10 +7451,10 @@
         <v>1266.657664366635</v>
       </c>
       <c r="X41" t="n">
-        <v>1141.643020022606</v>
+        <v>1141.643020022607</v>
       </c>
       <c r="Y41" t="n">
-        <v>993.8982210081299</v>
+        <v>993.89822100813</v>
       </c>
     </row>
     <row r="42">
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>281.3920383788833</v>
+        <v>300.2862827775172</v>
       </c>
       <c r="C42" t="n">
-        <v>281.3920383788833</v>
+        <v>300.2862827775172</v>
       </c>
       <c r="D42" t="n">
-        <v>120.611922139915</v>
+        <v>139.5061665385489</v>
       </c>
       <c r="E42" t="n">
-        <v>120.611922139915</v>
+        <v>139.5061665385489</v>
       </c>
       <c r="F42" t="n">
         <v>29.39115668647887</v>
@@ -7491,7 +7491,7 @@
         <v>29.39115668647887</v>
       </c>
       <c r="K42" t="n">
-        <v>68.39317769225947</v>
+        <v>68.39317769225948</v>
       </c>
       <c r="L42" t="n">
         <v>187.1227504174777</v>
@@ -7524,16 +7524,16 @@
         <v>793.8703257449579</v>
       </c>
       <c r="V42" t="n">
-        <v>550.790607648592</v>
+        <v>789.1928464305295</v>
       </c>
       <c r="W42" t="n">
-        <v>281.3920383788833</v>
+        <v>519.7942771608208</v>
       </c>
       <c r="X42" t="n">
-        <v>281.3920383788833</v>
+        <v>300.2862827775172</v>
       </c>
       <c r="Y42" t="n">
-        <v>281.3920383788833</v>
+        <v>300.2862827775172</v>
       </c>
     </row>
     <row r="43">
@@ -7549,46 +7549,46 @@
         <v>29.39115668647887</v>
       </c>
       <c r="D43" t="n">
-        <v>119.3183671684522</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="E43" t="n">
-        <v>119.3183671684522</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="F43" t="n">
-        <v>119.3183671684522</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="G43" t="n">
-        <v>119.3183671684522</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="H43" t="n">
-        <v>119.3183671684522</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="I43" t="n">
-        <v>119.3183671684522</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="J43" t="n">
-        <v>119.3183671684522</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="K43" t="n">
-        <v>119.3183671684522</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="L43" t="n">
-        <v>119.3183671684522</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="M43" t="n">
-        <v>119.3183671684522</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="N43" t="n">
-        <v>119.3183671684522</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="O43" t="n">
-        <v>119.3183671684522</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="P43" t="n">
-        <v>119.3183671684522</v>
+        <v>146.5844222825462</v>
       </c>
       <c r="Q43" t="n">
-        <v>119.3183671684522</v>
+        <v>146.5844222825462</v>
       </c>
       <c r="R43" t="n">
         <v>146.5844222825462</v>
@@ -7622,58 +7622,58 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>854.4345604185189</v>
+        <v>854.4345604185191</v>
       </c>
       <c r="C44" t="n">
-        <v>739.093872552801</v>
+        <v>739.0938725528013</v>
       </c>
       <c r="D44" t="n">
-        <v>636.3121116961249</v>
+        <v>636.3121116961255</v>
       </c>
       <c r="E44" t="n">
-        <v>499.4831261733792</v>
+        <v>499.48312617338</v>
       </c>
       <c r="F44" t="n">
-        <v>330.6133956219696</v>
+        <v>330.6133956219705</v>
       </c>
       <c r="G44" t="n">
-        <v>145.9590390815215</v>
+        <v>145.9590390815229</v>
       </c>
       <c r="H44" t="n">
-        <v>33.96023439704139</v>
+        <v>33.96023439704132</v>
       </c>
       <c r="I44" t="n">
         <v>29.39115668647887</v>
       </c>
       <c r="J44" t="n">
-        <v>188.0557537362336</v>
+        <v>188.0557537362337</v>
       </c>
       <c r="K44" t="n">
-        <v>416.5831312652732</v>
+        <v>416.5831312652733</v>
       </c>
       <c r="L44" t="n">
-        <v>465.2011603739148</v>
+        <v>465.2011603739149</v>
       </c>
       <c r="M44" t="n">
-        <v>781.8320793632852</v>
+        <v>781.8320793632854</v>
       </c>
       <c r="N44" t="n">
-        <v>1092.963150356545</v>
+        <v>1092.963150356546</v>
       </c>
       <c r="O44" t="n">
-        <v>1129.209383347446</v>
+        <v>1129.209383347447</v>
       </c>
       <c r="P44" t="n">
-        <v>1349.655166233715</v>
+        <v>1259.776067666949</v>
       </c>
       <c r="Q44" t="n">
-        <v>1469.557834323944</v>
+        <v>1405.917739996418</v>
       </c>
       <c r="R44" t="n">
-        <v>1469.557834323944</v>
+        <v>1447.398231152375</v>
       </c>
       <c r="S44" t="n">
-        <v>1469.557834323944</v>
+        <v>1456.088395684904</v>
       </c>
       <c r="T44" t="n">
         <v>1469.557834323944</v>
@@ -7691,7 +7691,7 @@
         <v>1141.643020022607</v>
       </c>
       <c r="Y44" t="n">
-        <v>993.8982210081303</v>
+        <v>993.8982210081305</v>
       </c>
     </row>
     <row r="45">
@@ -7701,13 +7701,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>202.9543605650644</v>
+        <v>128.1684815652134</v>
       </c>
       <c r="C45" t="n">
-        <v>202.9543605650644</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="D45" t="n">
-        <v>202.9543605650644</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="E45" t="n">
         <v>29.39115668647887</v>
@@ -7728,7 +7728,7 @@
         <v>29.39115668647887</v>
       </c>
       <c r="K45" t="n">
-        <v>68.39317769225947</v>
+        <v>68.39317769225948</v>
       </c>
       <c r="L45" t="n">
         <v>187.1227504174777</v>
@@ -7752,25 +7752,25 @@
         <v>795.0919678081414</v>
       </c>
       <c r="S45" t="n">
-        <v>795.0919678081414</v>
+        <v>601.6878212914243</v>
       </c>
       <c r="T45" t="n">
-        <v>795.0919678081414</v>
+        <v>384.5719278139001</v>
       </c>
       <c r="U45" t="n">
-        <v>555.4680869630204</v>
+        <v>383.3502857507166</v>
       </c>
       <c r="V45" t="n">
-        <v>312.3883688666544</v>
+        <v>378.6728064362882</v>
       </c>
       <c r="W45" t="n">
-        <v>202.9543605650644</v>
+        <v>347.676475948517</v>
       </c>
       <c r="X45" t="n">
-        <v>202.9543605650644</v>
+        <v>128.1684815652134</v>
       </c>
       <c r="Y45" t="n">
-        <v>202.9543605650644</v>
+        <v>128.1684815652134</v>
       </c>
     </row>
     <row r="46">
@@ -7801,46 +7801,46 @@
         <v>29.39115668647887</v>
       </c>
       <c r="I46" t="n">
-        <v>100.0069265076326</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="J46" t="n">
-        <v>100.0069265076326</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="K46" t="n">
-        <v>100.0069265076326</v>
+        <v>29.39115668647887</v>
       </c>
       <c r="L46" t="n">
-        <v>100.0069265076326</v>
+        <v>146.5844222825462</v>
       </c>
       <c r="M46" t="n">
-        <v>100.0069265076326</v>
+        <v>146.5844222825462</v>
       </c>
       <c r="N46" t="n">
-        <v>100.0069265076326</v>
+        <v>146.5844222825462</v>
       </c>
       <c r="O46" t="n">
-        <v>100.0069265076326</v>
+        <v>146.5844222825462</v>
       </c>
       <c r="P46" t="n">
-        <v>100.0069265076326</v>
+        <v>146.5844222825462</v>
       </c>
       <c r="Q46" t="n">
-        <v>114.079573025563</v>
+        <v>146.5844222825462</v>
       </c>
       <c r="R46" t="n">
-        <v>146.5844222825463</v>
+        <v>146.5844222825462</v>
       </c>
       <c r="S46" t="n">
-        <v>146.5844222825463</v>
+        <v>146.5844222825462</v>
       </c>
       <c r="T46" t="n">
-        <v>146.5844222825463</v>
+        <v>146.5844222825462</v>
       </c>
       <c r="U46" t="n">
-        <v>93.41468141935674</v>
+        <v>93.41468141935663</v>
       </c>
       <c r="V46" t="n">
-        <v>84.23205637861751</v>
+        <v>84.23205637861746</v>
       </c>
       <c r="W46" t="n">
         <v>29.39115668647887</v>
@@ -8696,7 +8696,7 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M11" t="n">
-        <v>291.2847697033554</v>
+        <v>291.2847697033555</v>
       </c>
       <c r="N11" t="n">
         <v>283.4008070189657</v>
@@ -8769,22 +8769,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>131.9774927702312</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L12" t="n">
-        <v>120.3756824180373</v>
+        <v>204.1866771242933</v>
       </c>
       <c r="M12" t="n">
-        <v>200.429819980268</v>
+        <v>116.6188252740119</v>
       </c>
       <c r="N12" t="n">
-        <v>185.7602653991548</v>
+        <v>142.9779817688207</v>
       </c>
       <c r="O12" t="n">
         <v>204.4566298243532</v>
       </c>
       <c r="P12" t="n">
-        <v>201.0780370628266</v>
+        <v>204.464339879241</v>
       </c>
       <c r="Q12" t="n">
         <v>136.1300824528302</v>
@@ -8933,7 +8933,7 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M14" t="n">
-        <v>291.2847697033554</v>
+        <v>291.2847697033555</v>
       </c>
       <c r="N14" t="n">
         <v>283.4008070189657</v>
@@ -9006,7 +9006,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>131.9774927702312</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L15" t="n">
         <v>204.1866771242933</v>
@@ -9015,10 +9015,10 @@
         <v>200.429819980268</v>
       </c>
       <c r="N15" t="n">
-        <v>185.7602653991548</v>
+        <v>142.9779817688207</v>
       </c>
       <c r="O15" t="n">
-        <v>201.0703270079388</v>
+        <v>204.4566298243532</v>
       </c>
       <c r="P15" t="n">
         <v>120.6533451729849</v>
@@ -9243,19 +9243,19 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>131.9774927702312</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L18" t="n">
         <v>204.1866771242933</v>
       </c>
       <c r="M18" t="n">
-        <v>200.429819980268</v>
+        <v>157.6475363499338</v>
       </c>
       <c r="N18" t="n">
         <v>185.7602653991548</v>
       </c>
       <c r="O18" t="n">
-        <v>201.0703270079388</v>
+        <v>204.4566298243532</v>
       </c>
       <c r="P18" t="n">
         <v>120.6533451729849</v>
@@ -9407,7 +9407,7 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M20" t="n">
-        <v>291.2847697033554</v>
+        <v>291.2847697033555</v>
       </c>
       <c r="N20" t="n">
         <v>283.4008070189657</v>
@@ -9483,10 +9483,10 @@
         <v>171.373473584151</v>
       </c>
       <c r="L21" t="n">
-        <v>161.4043934939592</v>
+        <v>120.3756824180373</v>
       </c>
       <c r="M21" t="n">
-        <v>116.6188252740119</v>
+        <v>157.6475363499338</v>
       </c>
       <c r="N21" t="n">
         <v>185.7602653991548</v>
@@ -9644,7 +9644,7 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M23" t="n">
-        <v>291.2847697033556</v>
+        <v>291.2847697033555</v>
       </c>
       <c r="N23" t="n">
         <v>283.4008070189657</v>
@@ -9720,19 +9720,19 @@
         <v>131.9774927702312</v>
       </c>
       <c r="L24" t="n">
-        <v>204.1866771242934</v>
+        <v>204.1866771242933</v>
       </c>
       <c r="M24" t="n">
         <v>200.429819980268</v>
       </c>
       <c r="N24" t="n">
-        <v>101.9492706928988</v>
+        <v>182.3739625827404</v>
       </c>
       <c r="O24" t="n">
-        <v>201.0703270079388</v>
+        <v>204.4566298243532</v>
       </c>
       <c r="P24" t="n">
-        <v>204.4643398792411</v>
+        <v>120.6533451729849</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1300824528302</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>85.95374321123097</v>
+        <v>169.7647379174871</v>
       </c>
       <c r="C11" t="n">
-        <v>145.8829949208325</v>
+        <v>62.07200021457648</v>
       </c>
       <c r="D11" t="n">
-        <v>133.449657181881</v>
+        <v>128.373770550956</v>
       </c>
       <c r="E11" t="n">
         <v>167.1564096012899</v>
       </c>
       <c r="F11" t="n">
-        <v>198.8767471796672</v>
+        <v>115.0657524734111</v>
       </c>
       <c r="G11" t="n">
-        <v>214.5035269088154</v>
+        <v>130.6925322025594</v>
       </c>
       <c r="H11" t="n">
         <v>142.5745305714073</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>36.2191008672287</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,13 +23309,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>18.0902203589844</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>81.97972103783748</v>
+        <v>116.5572811488058</v>
       </c>
       <c r="W11" t="n">
         <v>133.5739613654206</v>
@@ -23324,7 +23324,7 @@
         <v>155.4602118343599</v>
       </c>
       <c r="Y11" t="n">
-        <v>94.15207025184753</v>
+        <v>177.9630649581036</v>
       </c>
     </row>
     <row r="12">
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0.5227626820734285</v>
+        <v>0.5227626820734427</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>2.17720992273297</v>
+        <v>2.177209922732985</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>169.764737917487</v>
+        <v>169.7647379174871</v>
       </c>
       <c r="C14" t="n">
-        <v>145.8829949208325</v>
+        <v>145.8829949208326</v>
       </c>
       <c r="D14" t="n">
-        <v>133.4496571818809</v>
+        <v>133.449657181881</v>
       </c>
       <c r="E14" t="n">
-        <v>167.1564096012898</v>
+        <v>167.1564096012899</v>
       </c>
       <c r="F14" t="n">
-        <v>198.8767471796671</v>
+        <v>198.8767471796672</v>
       </c>
       <c r="G14" t="n">
-        <v>130.6925322025593</v>
+        <v>214.5035269088155</v>
       </c>
       <c r="H14" t="n">
-        <v>58.76353586515112</v>
+        <v>142.5745305714073</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>36.2191008672287</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23552,16 +23552,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>116.5572811488057</v>
+        <v>32.74628644254967</v>
       </c>
       <c r="W14" t="n">
-        <v>133.5739613654205</v>
+        <v>49.76296665916453</v>
       </c>
       <c r="X14" t="n">
-        <v>120.8826517233912</v>
+        <v>155.4602118343599</v>
       </c>
       <c r="Y14" t="n">
-        <v>177.9630649581035</v>
+        <v>107.166403979907</v>
       </c>
     </row>
     <row r="15">
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0.5227626820733432</v>
+        <v>0.5227626820734427</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>2.177209922732885</v>
+        <v>2.17720992273297</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23738,13 +23738,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-1.294324647460598e-12</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-4.494182803682634e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>815422.5500437781</v>
+        <v>815422.550043778</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>815422.5500437783</v>
+        <v>815422.550043778</v>
       </c>
     </row>
     <row r="7">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>727593.8960205792</v>
+        <v>727593.896020579</v>
       </c>
       <c r="C2" t="n">
-        <v>727593.8960205789</v>
+        <v>727593.8960205793</v>
       </c>
       <c r="D2" t="n">
         <v>727593.8960205792</v>
       </c>
       <c r="E2" t="n">
-        <v>626991.8234418948</v>
+        <v>626991.8234418944</v>
       </c>
       <c r="F2" t="n">
-        <v>626991.8234418948</v>
+        <v>626991.8234418944</v>
       </c>
       <c r="G2" t="n">
         <v>729067.8028082917</v>
@@ -26332,28 +26332,28 @@
         <v>729067.8028082919</v>
       </c>
       <c r="I2" t="n">
-        <v>729067.8028082921</v>
+        <v>729067.8028082919</v>
       </c>
       <c r="J2" t="n">
-        <v>729067.8028082919</v>
+        <v>729067.8028082912</v>
       </c>
       <c r="K2" t="n">
+        <v>729067.8028082915</v>
+      </c>
+      <c r="L2" t="n">
+        <v>729067.8028082917</v>
+      </c>
+      <c r="M2" t="n">
         <v>729067.8028082914</v>
       </c>
-      <c r="L2" t="n">
-        <v>729067.8028082914</v>
-      </c>
-      <c r="M2" t="n">
-        <v>729067.8028082916</v>
-      </c>
       <c r="N2" t="n">
-        <v>729067.8028082915</v>
+        <v>729067.8028082917</v>
       </c>
       <c r="O2" t="n">
         <v>729067.8028082916</v>
       </c>
       <c r="P2" t="n">
-        <v>729067.8028082919</v>
+        <v>729067.8028082914</v>
       </c>
     </row>
     <row r="3">
@@ -26375,10 +26375,10 @@
         <v>272190.3692365909</v>
       </c>
       <c r="F3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>105116.170734658</v>
+        <v>105116.1707346581</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>161283.0021054358</v>
+        <v>161283.0021054357</v>
       </c>
       <c r="K3" t="n">
-        <v>5.5409215677243e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>105116.170734658</v>
+        <v>105116.1707346581</v>
       </c>
       <c r="M3" t="n">
         <v>18540.64777616411</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>65157.7546044723</v>
+        <v>65157.75460447225</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,7 +26427,7 @@
         <v>388252.7260600599</v>
       </c>
       <c r="F4" t="n">
-        <v>388252.72606006</v>
+        <v>388252.7260600599</v>
       </c>
       <c r="G4" t="n">
         <v>458781.7794468557</v>
@@ -26482,13 +26482,13 @@
         <v>24544.28478191324</v>
       </c>
       <c r="G5" t="n">
-        <v>35590.5489787782</v>
+        <v>35590.54897877821</v>
       </c>
       <c r="H5" t="n">
-        <v>35590.5489787782</v>
+        <v>35590.54897877821</v>
       </c>
       <c r="I5" t="n">
-        <v>35590.5489787782</v>
+        <v>35590.54897877821</v>
       </c>
       <c r="J5" t="n">
         <v>47597.82369096752</v>
@@ -26509,7 +26509,7 @@
         <v>44450.48236019508</v>
       </c>
       <c r="P5" t="n">
-        <v>44450.48236019507</v>
+        <v>44450.48236019508</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>200270.1231494439</v>
+        <v>200265.6567652386</v>
       </c>
       <c r="C6" t="n">
-        <v>200270.1231494436</v>
+        <v>200265.6567652388</v>
       </c>
       <c r="D6" t="n">
-        <v>200270.1231494439</v>
+        <v>200265.6567652387</v>
       </c>
       <c r="E6" t="n">
-        <v>-57995.55663666917</v>
+        <v>-58304.87778626478</v>
       </c>
       <c r="F6" t="n">
-        <v>214194.8125999215</v>
+        <v>213885.4914503261</v>
       </c>
       <c r="G6" t="n">
-        <v>129579.3036479999</v>
+        <v>129579.3036479997</v>
       </c>
       <c r="H6" t="n">
         <v>234695.474382658</v>
       </c>
       <c r="I6" t="n">
-        <v>234695.4743826583</v>
+        <v>234695.4743826579</v>
       </c>
       <c r="J6" t="n">
-        <v>60459.2702232619</v>
+        <v>60459.27022326121</v>
       </c>
       <c r="K6" t="n">
-        <v>221742.2723286971</v>
+        <v>221742.2723286972</v>
       </c>
       <c r="L6" t="n">
-        <v>116626.1015940391</v>
+        <v>116626.1015940393</v>
       </c>
       <c r="M6" t="n">
-        <v>206725.2468263882</v>
+        <v>206725.246826388</v>
       </c>
       <c r="N6" t="n">
-        <v>225265.8946025522</v>
+        <v>225265.8946025525</v>
       </c>
       <c r="O6" t="n">
-        <v>160108.13999808</v>
+        <v>160108.1399980802</v>
       </c>
       <c r="P6" t="n">
-        <v>225265.8946025526</v>
+        <v>225265.8946025521</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603462</v>
       </c>
       <c r="F2" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603462</v>
       </c>
       <c r="G2" t="n">
         <v>335.7177158786689</v>
@@ -26710,7 +26710,7 @@
         <v>212.842406673913</v>
       </c>
       <c r="K2" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="L2" t="n">
         <v>212.842406673913</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>104.1921029556889</v>
+        <v>104.192102955689</v>
       </c>
       <c r="F3" t="n">
-        <v>104.1921029556889</v>
+        <v>104.192102955689</v>
       </c>
       <c r="G3" t="n">
-        <v>104.1921029556889</v>
+        <v>104.192102955689</v>
       </c>
       <c r="H3" t="n">
-        <v>104.1921029556889</v>
+        <v>104.192102955689</v>
       </c>
       <c r="I3" t="n">
-        <v>104.1921029556889</v>
+        <v>104.192102955689</v>
       </c>
       <c r="J3" t="n">
-        <v>104.1921029556889</v>
+        <v>104.192102955689</v>
       </c>
       <c r="K3" t="n">
-        <v>104.1921029556889</v>
+        <v>104.192102955689</v>
       </c>
       <c r="L3" t="n">
-        <v>104.1921029556889</v>
+        <v>104.192102955689</v>
       </c>
       <c r="M3" t="n">
-        <v>104.1921029556889</v>
+        <v>104.192102955689</v>
       </c>
       <c r="N3" t="n">
-        <v>104.1921029556889</v>
+        <v>104.192102955689</v>
       </c>
       <c r="O3" t="n">
-        <v>104.1921029556889</v>
+        <v>104.192102955689</v>
       </c>
       <c r="P3" t="n">
-        <v>104.1921029556889</v>
+        <v>104.192102955689</v>
       </c>
     </row>
     <row r="4">
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>83.81099470625608</v>
+        <v>83.8109947062561</v>
       </c>
       <c r="F4" t="n">
-        <v>83.81099470625608</v>
+        <v>83.8109947062561</v>
       </c>
       <c r="G4" t="n">
-        <v>83.81099470625608</v>
+        <v>83.8109947062561</v>
       </c>
       <c r="H4" t="n">
-        <v>83.81099470625608</v>
+        <v>83.8109947062561</v>
       </c>
       <c r="I4" t="n">
-        <v>83.81099470625612</v>
+        <v>83.8109947062561</v>
       </c>
       <c r="J4" t="n">
         <v>451.200453287242</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603462</v>
       </c>
       <c r="F2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>131.3952134183225</v>
+        <v>131.3952134183227</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>81.44719325559038</v>
+        <v>81.44719325559029</v>
       </c>
       <c r="K2" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>131.3952134183225</v>
+        <v>131.3952134183227</v>
       </c>
       <c r="M2" t="n">
         <v>23.17580972020514</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>81.44719325559038</v>
+        <v>81.44719325559032</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>104.1921029556889</v>
+        <v>104.192102955689</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>83.81099470625608</v>
+        <v>83.8109947062561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603462</v>
       </c>
       <c r="K2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>131.3952134183225</v>
+        <v>131.3952134183227</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>81.44719325559038</v>
+        <v>81.44719325559029</v>
       </c>
       <c r="P2" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>83.81099470625608</v>
+        <v>83.8109947062561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,37 +28087,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603462</v>
       </c>
       <c r="C11" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603462</v>
       </c>
       <c r="D11" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603462</v>
       </c>
       <c r="E11" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603462</v>
       </c>
       <c r="F11" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603462</v>
       </c>
       <c r="G11" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603462</v>
       </c>
       <c r="H11" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603462</v>
       </c>
       <c r="I11" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603462</v>
       </c>
       <c r="J11" t="n">
-        <v>76.00956368478077</v>
+        <v>75.75094664689104</v>
       </c>
       <c r="K11" t="n">
-        <v>88.99347622255644</v>
+        <v>54.55021886594931</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>34.70187439449687</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -28129,7 +28129,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>13.34570842819045</v>
+        <v>13.34570842819044</v>
       </c>
       <c r="Q11" t="n">
         <v>88.40036555627083</v>
@@ -28138,25 +28138,25 @@
         <v>194.1187303779996</v>
       </c>
       <c r="S11" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603462</v>
       </c>
       <c r="T11" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603462</v>
       </c>
       <c r="U11" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603462</v>
       </c>
       <c r="V11" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603462</v>
       </c>
       <c r="W11" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603462</v>
       </c>
       <c r="X11" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603462</v>
       </c>
       <c r="Y11" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603462</v>
       </c>
     </row>
     <row r="12">
@@ -28166,7 +28166,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>176.7504943976657</v>
+        <v>98.11962174440171</v>
       </c>
       <c r="C12" t="n">
         <v>187.5181515243659</v>
@@ -28211,7 +28211,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>6.040069060206893</v>
       </c>
       <c r="R12" t="n">
         <v>134.3163923318781</v>
@@ -28220,22 +28220,22 @@
         <v>191.47010505155</v>
       </c>
       <c r="T12" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603462</v>
       </c>
       <c r="U12" t="n">
-        <v>204.3225024603463</v>
+        <v>153.4166473304137</v>
       </c>
       <c r="V12" t="n">
-        <v>194.9667239074743</v>
+        <v>204.3225024603462</v>
       </c>
       <c r="W12" t="n">
-        <v>204.3225024603463</v>
+        <v>182.8935888707555</v>
       </c>
       <c r="X12" t="n">
-        <v>133.5019197332145</v>
+        <v>204.3225024603462</v>
       </c>
       <c r="Y12" t="n">
-        <v>139.5732914277695</v>
+        <v>204.3225024603462</v>
       </c>
     </row>
     <row r="13">
@@ -28245,19 +28245,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>204.3225024603463</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C13" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
-        <v>204.3225024603463</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
-        <v>138.9268822184467</v>
+        <v>204.3225024603462</v>
       </c>
       <c r="G13" t="n">
         <v>168.6953277291724</v>
@@ -28269,22 +28269,22 @@
         <v>164.6891559687103</v>
       </c>
       <c r="J13" t="n">
-        <v>203.665485391975</v>
+        <v>119.854490685719</v>
       </c>
       <c r="K13" t="n">
-        <v>108.0634727439359</v>
+        <v>66.3971147738707</v>
       </c>
       <c r="L13" t="n">
         <v>115.1529611747455</v>
       </c>
       <c r="M13" t="n">
-        <v>24.36299235552879</v>
+        <v>108.1739870617849</v>
       </c>
       <c r="N13" t="n">
         <v>15.6865875183878</v>
       </c>
       <c r="O13" t="n">
-        <v>36.70894732328664</v>
+        <v>98.82511905646609</v>
       </c>
       <c r="P13" t="n">
         <v>57.81978506455187</v>
@@ -28296,25 +28296,25 @@
         <v>203.1850353264581</v>
       </c>
       <c r="S13" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603462</v>
       </c>
       <c r="T13" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603462</v>
       </c>
       <c r="U13" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603462</v>
       </c>
       <c r="V13" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603462</v>
       </c>
       <c r="W13" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603462</v>
       </c>
       <c r="X13" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603462</v>
       </c>
       <c r="Y13" t="n">
-        <v>204.3225024603463</v>
+        <v>204.3225024603462</v>
       </c>
     </row>
     <row r="14">
@@ -28324,34 +28324,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603462</v>
       </c>
       <c r="C14" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603462</v>
       </c>
       <c r="D14" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603462</v>
       </c>
       <c r="E14" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603462</v>
       </c>
       <c r="F14" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603462</v>
       </c>
       <c r="G14" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603462</v>
       </c>
       <c r="H14" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603462</v>
       </c>
       <c r="I14" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603462</v>
       </c>
       <c r="J14" t="n">
         <v>75.75094664689104</v>
       </c>
       <c r="K14" t="n">
-        <v>5.182481516300349</v>
+        <v>5.441098554190113</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -28366,34 +28366,34 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>87.21154808998956</v>
+        <v>97.15670313444653</v>
       </c>
       <c r="Q14" t="n">
         <v>88.40036555627083</v>
       </c>
       <c r="R14" t="n">
-        <v>204.3225024603464</v>
+        <v>194.1187303779996</v>
       </c>
       <c r="S14" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603462</v>
       </c>
       <c r="T14" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603462</v>
       </c>
       <c r="U14" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603462</v>
       </c>
       <c r="V14" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603462</v>
       </c>
       <c r="W14" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603462</v>
       </c>
       <c r="X14" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603462</v>
       </c>
       <c r="Y14" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603462</v>
       </c>
     </row>
     <row r="15">
@@ -28403,7 +28403,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>92.93949969140965</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
         <v>187.5181515243659</v>
@@ -28427,7 +28427,7 @@
         <v>107.1397061627909</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>51.86130901229092</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28448,31 +28448,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>6.040069060206893</v>
       </c>
       <c r="R15" t="n">
-        <v>134.3163923318781</v>
+        <v>50.50539762562202</v>
       </c>
       <c r="S15" t="n">
         <v>191.47010505155</v>
       </c>
       <c r="T15" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603462</v>
       </c>
       <c r="U15" t="n">
-        <v>204.3225024603464</v>
+        <v>201.9170668263917</v>
       </c>
       <c r="V15" t="n">
-        <v>195.0692338663123</v>
+        <v>204.3225024603462</v>
       </c>
       <c r="W15" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603462</v>
       </c>
       <c r="X15" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603462</v>
       </c>
       <c r="Y15" t="n">
-        <v>204.3225024603464</v>
+        <v>139.5732914277695</v>
       </c>
     </row>
     <row r="16">
@@ -28482,13 +28482,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>204.3225024603464</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C16" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>145.1826502507107</v>
+        <v>204.3225024603462</v>
       </c>
       <c r="E16" t="n">
         <v>141.676141212225</v>
@@ -28503,19 +28503,19 @@
         <v>165.7759671126257</v>
       </c>
       <c r="I16" t="n">
-        <v>164.6891559687103</v>
+        <v>204.3225024603462</v>
       </c>
       <c r="J16" t="n">
-        <v>119.854490685719</v>
+        <v>203.665485391975</v>
       </c>
       <c r="K16" t="n">
-        <v>89.64167990605655</v>
+        <v>66.3971147738707</v>
       </c>
       <c r="L16" t="n">
         <v>115.1529611747455</v>
       </c>
       <c r="M16" t="n">
-        <v>24.36299235552879</v>
+        <v>53.1015856293363</v>
       </c>
       <c r="N16" t="n">
         <v>15.6865875183878</v>
@@ -28524,34 +28524,34 @@
         <v>36.70894732328664</v>
       </c>
       <c r="P16" t="n">
-        <v>141.6307797708079</v>
+        <v>57.81978506455187</v>
       </c>
       <c r="Q16" t="n">
-        <v>204.3225024603464</v>
+        <v>126.760857412832</v>
       </c>
       <c r="R16" t="n">
         <v>203.1850353264581</v>
       </c>
       <c r="S16" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603462</v>
       </c>
       <c r="T16" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603462</v>
       </c>
       <c r="U16" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603462</v>
       </c>
       <c r="V16" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603462</v>
       </c>
       <c r="W16" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603462</v>
       </c>
       <c r="X16" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603462</v>
       </c>
       <c r="Y16" t="n">
-        <v>204.3225024603464</v>
+        <v>204.3225024603462</v>
       </c>
     </row>
     <row r="17">
@@ -28582,16 +28582,16 @@
         <v>335.7177158786689</v>
       </c>
       <c r="I17" t="n">
-        <v>324.352598033831</v>
+        <v>240.541603327575</v>
       </c>
       <c r="J17" t="n">
         <v>75.75094664689104</v>
       </c>
       <c r="K17" t="n">
-        <v>5.182481516300349</v>
+        <v>5.182481516300342</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>0.2586170378897705</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -28603,13 +28603,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>13.34570842819045</v>
+        <v>13.34570842819044</v>
       </c>
       <c r="Q17" t="n">
         <v>88.40036555627083</v>
       </c>
       <c r="R17" t="n">
-        <v>194.1187303779996</v>
+        <v>277.9297250842557</v>
       </c>
       <c r="S17" t="n">
         <v>227.240272421867</v>
@@ -28618,7 +28618,7 @@
         <v>222.4127228193306</v>
       </c>
       <c r="U17" t="n">
-        <v>250.4081870430605</v>
+        <v>250.1495700051708</v>
       </c>
       <c r="V17" t="n">
         <v>320.879783609152</v>
@@ -28664,7 +28664,7 @@
         <v>107.1397061627909</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>51.86130901229092</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>134.3163923318781</v>
+        <v>50.50539762562202</v>
       </c>
       <c r="S18" t="n">
         <v>107.6591103452939</v>
@@ -28700,13 +28700,13 @@
         <v>237.2276420366697</v>
       </c>
       <c r="V18" t="n">
-        <v>224.7295748506297</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>133.5019197332145</v>
+        <v>149.5322593624072</v>
       </c>
       <c r="Y18" t="n">
         <v>139.5732914277695</v>
@@ -28752,7 +28752,7 @@
         <v>31.3419664684894</v>
       </c>
       <c r="M19" t="n">
-        <v>24.36299235552879</v>
+        <v>24.36299235552878</v>
       </c>
       <c r="N19" t="n">
         <v>15.6865875183878</v>
@@ -28819,13 +28819,13 @@
         <v>335.7177158786689</v>
       </c>
       <c r="I20" t="n">
-        <v>309.7732828022039</v>
+        <v>240.541603327575</v>
       </c>
       <c r="J20" t="n">
-        <v>75.75094664689104</v>
+        <v>159.5619413531471</v>
       </c>
       <c r="K20" t="n">
-        <v>5.182481516300349</v>
+        <v>5.182481516300342</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28840,10 +28840,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>13.34570842819045</v>
+        <v>13.34570842819044</v>
       </c>
       <c r="Q20" t="n">
-        <v>88.40036555627083</v>
+        <v>88.65898259416056</v>
       </c>
       <c r="R20" t="n">
         <v>194.1187303779996</v>
@@ -28858,7 +28858,7 @@
         <v>250.1495700051708</v>
       </c>
       <c r="V20" t="n">
-        <v>335.7177158786689</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W20" t="n">
         <v>335.7177158786689</v>
@@ -28880,7 +28880,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>119.7374964473025</v>
       </c>
       <c r="D21" t="n">
         <v>159.1723150765785</v>
@@ -28898,7 +28898,7 @@
         <v>125.6727734256474</v>
       </c>
       <c r="I21" t="n">
-        <v>39.35905108572749</v>
+        <v>107.1397061627909</v>
       </c>
       <c r="J21" t="n">
         <v>51.86130901229092</v>
@@ -28937,13 +28937,13 @@
         <v>237.2276420366697</v>
       </c>
       <c r="V21" t="n">
-        <v>240.6489209154022</v>
+        <v>156.8379262091461</v>
       </c>
       <c r="W21" t="n">
         <v>182.8935888707555</v>
       </c>
       <c r="X21" t="n">
-        <v>133.5019197332145</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
         <v>139.5732914277695</v>
@@ -28989,7 +28989,7 @@
         <v>31.3419664684894</v>
       </c>
       <c r="M22" t="n">
-        <v>24.36299235552879</v>
+        <v>24.36299235552878</v>
       </c>
       <c r="N22" t="n">
         <v>15.6865875183878</v>
@@ -29056,13 +29056,13 @@
         <v>335.7177158786689</v>
       </c>
       <c r="I23" t="n">
-        <v>324.3525980338311</v>
+        <v>240.541603327575</v>
       </c>
       <c r="J23" t="n">
         <v>75.75094664689104</v>
       </c>
       <c r="K23" t="n">
-        <v>5.182481516300349</v>
+        <v>5.182481516300342</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29071,16 +29071,16 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>5.555402016273121</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>13.34570842819045</v>
+        <v>13.34570842819044</v>
       </c>
       <c r="Q23" t="n">
-        <v>88.65898259416063</v>
+        <v>152.0766430146267</v>
       </c>
       <c r="R23" t="n">
         <v>194.1187303779996</v>
@@ -29095,7 +29095,7 @@
         <v>250.1495700051708</v>
       </c>
       <c r="V23" t="n">
-        <v>320.879783609152</v>
+        <v>335.7177158786689</v>
       </c>
       <c r="W23" t="n">
         <v>335.7177158786689</v>
@@ -29123,10 +29123,10 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>149.8681567148202</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>75.01244441367221</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
         <v>148.7381070793004</v>
@@ -29135,10 +29135,10 @@
         <v>125.6727734256474</v>
       </c>
       <c r="I24" t="n">
-        <v>23.32871145653482</v>
+        <v>107.1397061627909</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>51.86130901229092</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29159,19 +29159,19 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.040069060206896</v>
+        <v>6.040069060206893</v>
       </c>
       <c r="R24" t="n">
-        <v>50.505397625622</v>
+        <v>50.50539762562202</v>
       </c>
       <c r="S24" t="n">
         <v>191.47010505155</v>
       </c>
       <c r="T24" t="n">
-        <v>214.9447345427489</v>
+        <v>141.1240104054786</v>
       </c>
       <c r="U24" t="n">
-        <v>237.2276420366697</v>
+        <v>153.4166473304137</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
@@ -29183,7 +29183,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
-        <v>223.3842861340256</v>
+        <v>139.5732914277695</v>
       </c>
     </row>
     <row r="25">
@@ -29226,7 +29226,7 @@
         <v>31.3419664684894</v>
       </c>
       <c r="M25" t="n">
-        <v>24.36299235552879</v>
+        <v>24.36299235552878</v>
       </c>
       <c r="N25" t="n">
         <v>15.6865875183878</v>
@@ -29305,7 +29305,7 @@
         <v>212.842406673913</v>
       </c>
       <c r="M26" t="n">
-        <v>212.842406673913</v>
+        <v>212.8424066739134</v>
       </c>
       <c r="N26" t="n">
         <v>212.842406673913</v>
@@ -29375,7 +29375,7 @@
         <v>107.1397061627909</v>
       </c>
       <c r="J27" t="n">
-        <v>40.18113506327878</v>
+        <v>51.86130901229092</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29396,22 +29396,22 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.040069060206893</v>
       </c>
       <c r="R27" t="n">
         <v>134.3163923318781</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>191.47010505155</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>212.842406673913</v>
       </c>
       <c r="U27" t="n">
-        <v>212.842406673913</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>212.842406673913</v>
+        <v>3.652058613144021</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -29430,7 +29430,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>191.7155805644146</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C28" t="n">
         <v>166.4571809719723</v>
@@ -29439,22 +29439,22 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E28" t="n">
-        <v>141.676141212225</v>
+        <v>212.842406673913</v>
       </c>
       <c r="F28" t="n">
-        <v>212.842406673913</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>212.842406673913</v>
+        <v>193.4262204876859</v>
       </c>
       <c r="H28" t="n">
-        <v>212.842406673913</v>
+        <v>165.7759671126257</v>
       </c>
       <c r="I28" t="n">
         <v>212.842406673913</v>
       </c>
       <c r="J28" t="n">
-        <v>119.854490685719</v>
+        <v>212.842406673913</v>
       </c>
       <c r="K28" t="n">
         <v>66.3971147738707</v>
@@ -29463,7 +29463,7 @@
         <v>31.3419664684894</v>
       </c>
       <c r="M28" t="n">
-        <v>24.36299235552879</v>
+        <v>24.36299235552878</v>
       </c>
       <c r="N28" t="n">
         <v>15.6865875183878</v>
@@ -29478,7 +29478,7 @@
         <v>126.760857412832</v>
       </c>
       <c r="R28" t="n">
-        <v>212.842406673913</v>
+        <v>203.1850353264581</v>
       </c>
       <c r="S28" t="n">
         <v>212.842406673913</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="C29" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="D29" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="E29" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="F29" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="G29" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="H29" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="I29" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="J29" t="n">
-        <v>212.8424066739129</v>
+        <v>212.8424066739134</v>
       </c>
       <c r="K29" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="L29" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="M29" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="N29" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="O29" t="n">
-        <v>212.8424066739138</v>
+        <v>212.842406673913</v>
       </c>
       <c r="P29" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="R29" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="S29" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="T29" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="U29" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="V29" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="W29" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="X29" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="Y29" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
     </row>
     <row r="30">
@@ -29606,13 +29606,13 @@
         <v>148.7381070793004</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>125.6727734256474</v>
       </c>
       <c r="I30" t="n">
         <v>107.1397061627909</v>
       </c>
       <c r="J30" t="n">
-        <v>51.86130901229092</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29633,7 +29633,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.040069060206896</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>134.3163923318781</v>
@@ -29642,22 +29642,22 @@
         <v>191.47010505155</v>
       </c>
       <c r="T30" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="U30" t="n">
-        <v>212.8424066739129</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>212.842406673913</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>212.842406673913</v>
       </c>
       <c r="X30" t="n">
-        <v>212.8424066739129</v>
+        <v>61.55343668564183</v>
       </c>
       <c r="Y30" t="n">
-        <v>129.3248320387915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29673,7 +29673,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D31" t="n">
-        <v>212.8424066739129</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E31" t="n">
         <v>141.676141212225</v>
@@ -29700,16 +29700,16 @@
         <v>31.3419664684894</v>
       </c>
       <c r="M31" t="n">
-        <v>24.36299235552879</v>
+        <v>64.24549811360181</v>
       </c>
       <c r="N31" t="n">
-        <v>30.04253439942291</v>
+        <v>212.842406673913</v>
       </c>
       <c r="O31" t="n">
         <v>36.70894732328664</v>
       </c>
       <c r="P31" t="n">
-        <v>212.8424066739129</v>
+        <v>57.81978506455187</v>
       </c>
       <c r="Q31" t="n">
         <v>126.760857412832</v>
@@ -29718,25 +29718,25 @@
         <v>203.1850353264581</v>
       </c>
       <c r="S31" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="T31" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="U31" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="V31" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="W31" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="X31" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
       <c r="Y31" t="n">
-        <v>212.8424066739129</v>
+        <v>212.842406673913</v>
       </c>
     </row>
     <row r="32">
@@ -29788,7 +29788,7 @@
         <v>212.842406673913</v>
       </c>
       <c r="P32" t="n">
-        <v>212.8424066739133</v>
+        <v>212.842406673913</v>
       </c>
       <c r="Q32" t="n">
         <v>212.842406673913</v>
@@ -29828,7 +29828,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -29840,7 +29840,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>148.7381070793004</v>
       </c>
       <c r="H33" t="n">
         <v>125.6727734256474</v>
@@ -29879,13 +29879,13 @@
         <v>191.47010505155</v>
       </c>
       <c r="T33" t="n">
-        <v>212.842406673913</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>212.842406673913</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>212.842406673913</v>
+        <v>168.8644427499295</v>
       </c>
       <c r="W33" t="n">
         <v>212.842406673913</v>
@@ -29894,7 +29894,7 @@
         <v>212.842406673913</v>
       </c>
       <c r="Y33" t="n">
-        <v>79.43588800576978</v>
+        <v>212.842406673913</v>
       </c>
     </row>
     <row r="34">
@@ -29919,7 +29919,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>168.6953277291724</v>
+        <v>212.842406673913</v>
       </c>
       <c r="H34" t="n">
         <v>165.7759671126257</v>
@@ -29931,19 +29931,19 @@
         <v>119.854490685719</v>
       </c>
       <c r="K34" t="n">
+        <v>66.3971147738707</v>
+      </c>
+      <c r="L34" t="n">
         <v>212.842406673913</v>
       </c>
-      <c r="L34" t="n">
-        <v>121.9349994820453</v>
-      </c>
       <c r="M34" t="n">
-        <v>24.36299235552879</v>
+        <v>24.36299235552878</v>
       </c>
       <c r="N34" t="n">
         <v>15.6865875183878</v>
       </c>
       <c r="O34" t="n">
-        <v>36.70894732328664</v>
+        <v>48.09975308672072</v>
       </c>
       <c r="P34" t="n">
         <v>57.81978506455187</v>
@@ -30007,13 +30007,13 @@
         <v>236.0182163941181</v>
       </c>
       <c r="J35" t="n">
-        <v>145.2312481448603</v>
+        <v>200.7362277357658</v>
       </c>
       <c r="K35" t="n">
         <v>236.0182163941181</v>
       </c>
       <c r="L35" t="n">
-        <v>236.0182163941181</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>236.0182163941181</v>
@@ -30022,7 +30022,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="P35" t="n">
         <v>236.0182163941181</v>
@@ -30031,13 +30031,13 @@
         <v>236.0182163941181</v>
       </c>
       <c r="R35" t="n">
-        <v>236.0182163941181</v>
+        <v>194.1187303779996</v>
       </c>
       <c r="S35" t="n">
         <v>236.0182163941181</v>
       </c>
       <c r="T35" t="n">
-        <v>236.0182163941181</v>
+        <v>222.4127228193306</v>
       </c>
       <c r="U35" t="n">
         <v>236.0182163941181</v>
@@ -30107,13 +30107,13 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.040069060206896</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>134.3163923318781</v>
+        <v>105.8203230593536</v>
       </c>
       <c r="S36" t="n">
-        <v>156.9339667188186</v>
+        <v>191.47010505155</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -30159,10 +30159,10 @@
         <v>168.6953277291724</v>
       </c>
       <c r="H37" t="n">
-        <v>212.8239426428415</v>
+        <v>165.7759671126257</v>
       </c>
       <c r="I37" t="n">
-        <v>236.0182163941181</v>
+        <v>164.6891559687103</v>
       </c>
       <c r="J37" t="n">
         <v>119.854490685719</v>
@@ -30174,7 +30174,7 @@
         <v>31.3419664684894</v>
       </c>
       <c r="M37" t="n">
-        <v>24.36299235552879</v>
+        <v>142.064926478417</v>
       </c>
       <c r="N37" t="n">
         <v>15.6865875183878</v>
@@ -30192,7 +30192,7 @@
         <v>203.1850353264581</v>
       </c>
       <c r="S37" t="n">
-        <v>235.3431145613827</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="T37" t="n">
         <v>223.7382840589537</v>
@@ -30244,28 +30244,28 @@
         <v>236.0182163941181</v>
       </c>
       <c r="J38" t="n">
+        <v>75.75094664689104</v>
+      </c>
+      <c r="K38" t="n">
         <v>236.0182163941181</v>
       </c>
-      <c r="K38" t="n">
-        <v>145.2312481448598</v>
-      </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="M38" t="n">
+        <v>230.7036459106035</v>
+      </c>
+      <c r="N38" t="n">
         <v>236.0182163941181</v>
       </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
       <c r="O38" t="n">
-        <v>236.0182163941181</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>236.0182163941181</v>
       </c>
       <c r="Q38" t="n">
-        <v>236.0182163941181</v>
+        <v>88.40036555627083</v>
       </c>
       <c r="R38" t="n">
         <v>236.0182163941181</v>
@@ -30274,7 +30274,7 @@
         <v>236.0182163941181</v>
       </c>
       <c r="T38" t="n">
-        <v>236.0182163941181</v>
+        <v>222.4127228193306</v>
       </c>
       <c r="U38" t="n">
         <v>236.0182163941181</v>
@@ -30308,7 +30308,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>118.5861315524208</v>
       </c>
       <c r="F39" t="n">
         <v>158.8234391199283</v>
@@ -30344,22 +30344,22 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.040069060206896</v>
+        <v>6.040069060206893</v>
       </c>
       <c r="R39" t="n">
         <v>134.3163923318781</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>191.47010505155</v>
       </c>
       <c r="T39" t="n">
-        <v>214.9447345427489</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
         <v>236.0182163941181</v>
-      </c>
-      <c r="V39" t="n">
-        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>236.0182163941181</v>
@@ -30368,7 +30368,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>146.6682163554476</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -30378,10 +30378,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>236.0182163941181</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C40" t="n">
-        <v>207.5559776184961</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D40" t="n">
         <v>145.1826502507107</v>
@@ -30390,7 +30390,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F40" t="n">
-        <v>138.9268822184467</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="G40" t="n">
         <v>168.6953277291724</v>
@@ -30411,7 +30411,7 @@
         <v>31.3419664684894</v>
       </c>
       <c r="M40" t="n">
-        <v>24.36299235552879</v>
+        <v>24.36299235552878</v>
       </c>
       <c r="N40" t="n">
         <v>15.6865875183878</v>
@@ -30420,7 +30420,7 @@
         <v>36.70894732328664</v>
       </c>
       <c r="P40" t="n">
-        <v>57.81978506455187</v>
+        <v>79.10548684450403</v>
       </c>
       <c r="Q40" t="n">
         <v>126.760857412832</v>
@@ -30447,7 +30447,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y40" t="n">
-        <v>236.0182163941181</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="41">
@@ -30484,19 +30484,19 @@
         <v>236.0182163941181</v>
       </c>
       <c r="K41" t="n">
+        <v>145.2312481448598</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
         <v>236.0182163941181</v>
       </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>145.2312481448598</v>
-      </c>
       <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>236.0182163941181</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>236.0182163941181</v>
@@ -30548,7 +30548,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>68.51488132102654</v>
+        <v>49.809579366379</v>
       </c>
       <c r="G42" t="n">
         <v>148.7381070793004</v>
@@ -30581,7 +30581,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.040069060206896</v>
+        <v>6.040069060206893</v>
       </c>
       <c r="R42" t="n">
         <v>134.3163923318781</v>
@@ -30596,13 +30596,13 @@
         <v>236.0182163941181</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>223.3842861340256</v>
@@ -30621,7 +30621,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D43" t="n">
-        <v>236.0182163941181</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E43" t="n">
         <v>141.676141212225</v>
@@ -30648,7 +30648,7 @@
         <v>31.3419664684894</v>
       </c>
       <c r="M43" t="n">
-        <v>24.36299235552879</v>
+        <v>24.36299235552878</v>
       </c>
       <c r="N43" t="n">
         <v>15.6865875183878</v>
@@ -30657,13 +30657,13 @@
         <v>36.70894732328664</v>
       </c>
       <c r="P43" t="n">
-        <v>57.81978506455187</v>
+        <v>176.1968210201754</v>
       </c>
       <c r="Q43" t="n">
         <v>126.760857412832</v>
       </c>
       <c r="R43" t="n">
-        <v>230.7265051386742</v>
+        <v>203.1850353264581</v>
       </c>
       <c r="S43" t="n">
         <v>235.3431145613827</v>
@@ -30736,19 +30736,19 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
+        <v>145.2312481448596</v>
+      </c>
+      <c r="Q44" t="n">
         <v>236.0182163941181</v>
       </c>
-      <c r="Q44" t="n">
-        <v>209.5141717080172</v>
-      </c>
       <c r="R44" t="n">
-        <v>194.1187303779996</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="S44" t="n">
-        <v>227.240272421867</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="T44" t="n">
-        <v>222.4127228193306</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="U44" t="n">
         <v>236.0182163941181</v>
@@ -30776,13 +30776,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>89.72859989441876</v>
       </c>
       <c r="D45" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
         <v>158.8234391199283</v>
@@ -30818,28 +30818,28 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.040069060206896</v>
+        <v>6.040069060206893</v>
       </c>
       <c r="R45" t="n">
         <v>134.3163923318781</v>
       </c>
       <c r="S45" t="n">
-        <v>191.47010505155</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>214.9447345427489</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="W45" t="n">
-        <v>158.3649153584375</v>
+        <v>236.0182163941181</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>223.3842861340256</v>
@@ -30873,7 +30873,7 @@
         <v>165.7759671126257</v>
       </c>
       <c r="I46" t="n">
-        <v>236.0182163941181</v>
+        <v>164.6891559687103</v>
       </c>
       <c r="J46" t="n">
         <v>119.854490685719</v>
@@ -30882,10 +30882,10 @@
         <v>66.3971147738707</v>
       </c>
       <c r="L46" t="n">
-        <v>31.3419664684894</v>
+        <v>149.7190024241129</v>
       </c>
       <c r="M46" t="n">
-        <v>24.36299235552879</v>
+        <v>24.36299235552878</v>
       </c>
       <c r="N46" t="n">
         <v>15.6865875183878</v>
@@ -30897,10 +30897,10 @@
         <v>57.81978506455187</v>
       </c>
       <c r="Q46" t="n">
-        <v>140.9756518753879</v>
+        <v>126.760857412832</v>
       </c>
       <c r="R46" t="n">
-        <v>236.0182163941181</v>
+        <v>203.1850353264581</v>
       </c>
       <c r="S46" t="n">
         <v>235.3431145613827</v>
@@ -31759,7 +31759,7 @@
         <v>16.14820522291135</v>
       </c>
       <c r="J11" t="n">
-        <v>35.55045024416243</v>
+        <v>35.55045024416244</v>
       </c>
       <c r="K11" t="n">
         <v>53.28090941246118</v>
@@ -31768,10 +31768,10 @@
         <v>66.0996795464518</v>
       </c>
       <c r="M11" t="n">
-        <v>73.54862954017332</v>
+        <v>73.54862954017334</v>
       </c>
       <c r="N11" t="n">
-        <v>74.73872325885816</v>
+        <v>74.73872325885817</v>
       </c>
       <c r="O11" t="n">
         <v>70.57365703266467</v>
@@ -31786,7 +31786,7 @@
         <v>26.31138567754893</v>
       </c>
       <c r="S11" t="n">
-        <v>9.544834356192009</v>
+        <v>9.544834356192011</v>
       </c>
       <c r="T11" t="n">
         <v>1.8335715806574</v>
@@ -31835,28 +31835,28 @@
         <v>2.164443497249312</v>
       </c>
       <c r="I12" t="n">
-        <v>7.716113284926021</v>
+        <v>7.716113284926022</v>
       </c>
       <c r="J12" t="n">
         <v>21.17360462045751</v>
       </c>
       <c r="K12" t="n">
-        <v>36.18906277848679</v>
+        <v>36.1890627784868</v>
       </c>
       <c r="L12" t="n">
-        <v>48.66066091340926</v>
+        <v>48.66066091340927</v>
       </c>
       <c r="M12" t="n">
-        <v>56.78469611085046</v>
+        <v>56.78469611085047</v>
       </c>
       <c r="N12" t="n">
-        <v>58.28761804876791</v>
+        <v>58.28761804876792</v>
       </c>
       <c r="O12" t="n">
-        <v>53.32178310412507</v>
+        <v>53.32178310412508</v>
       </c>
       <c r="P12" t="n">
-        <v>42.79543187249798</v>
+        <v>42.79543187249799</v>
       </c>
       <c r="Q12" t="n">
         <v>28.60761287190916</v>
@@ -31865,10 +31865,10 @@
         <v>13.91456046642201</v>
       </c>
       <c r="S12" t="n">
-        <v>4.162769396390022</v>
+        <v>4.162769396390023</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9033258737384726</v>
+        <v>0.9033258737384727</v>
       </c>
       <c r="U12" t="n">
         <v>0.0147441655125975</v>
@@ -31911,13 +31911,13 @@
         <v>0.1878873987725538</v>
       </c>
       <c r="H13" t="n">
-        <v>1.670489781814161</v>
+        <v>1.670489781814162</v>
       </c>
       <c r="I13" t="n">
-        <v>5.650286501269165</v>
+        <v>5.650286501269166</v>
       </c>
       <c r="J13" t="n">
-        <v>13.28363909321955</v>
+        <v>13.28363909321956</v>
       </c>
       <c r="K13" t="n">
         <v>21.82909960284761</v>
@@ -31941,13 +31941,13 @@
         <v>15.73300754630903</v>
       </c>
       <c r="R13" t="n">
-        <v>8.448100675718644</v>
+        <v>8.448100675718646</v>
       </c>
       <c r="S13" t="n">
         <v>3.274364940427141</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8027916129372751</v>
+        <v>0.8027916129372752</v>
       </c>
       <c r="U13" t="n">
         <v>0.01024840356941204</v>
@@ -31996,7 +31996,7 @@
         <v>16.14820522291135</v>
       </c>
       <c r="J14" t="n">
-        <v>35.55045024416243</v>
+        <v>35.55045024416244</v>
       </c>
       <c r="K14" t="n">
         <v>53.28090941246118</v>
@@ -32005,10 +32005,10 @@
         <v>66.0996795464518</v>
       </c>
       <c r="M14" t="n">
-        <v>73.54862954017332</v>
+        <v>73.54862954017334</v>
       </c>
       <c r="N14" t="n">
-        <v>74.73872325885816</v>
+        <v>74.73872325885817</v>
       </c>
       <c r="O14" t="n">
         <v>70.57365703266467</v>
@@ -32023,7 +32023,7 @@
         <v>26.31138567754893</v>
       </c>
       <c r="S14" t="n">
-        <v>9.544834356192009</v>
+        <v>9.544834356192011</v>
       </c>
       <c r="T14" t="n">
         <v>1.8335715806574</v>
@@ -32072,28 +32072,28 @@
         <v>2.164443497249312</v>
       </c>
       <c r="I15" t="n">
-        <v>7.716113284926021</v>
+        <v>7.716113284926022</v>
       </c>
       <c r="J15" t="n">
         <v>21.17360462045751</v>
       </c>
       <c r="K15" t="n">
-        <v>36.18906277848679</v>
+        <v>36.1890627784868</v>
       </c>
       <c r="L15" t="n">
-        <v>48.66066091340926</v>
+        <v>48.66066091340927</v>
       </c>
       <c r="M15" t="n">
-        <v>56.78469611085046</v>
+        <v>56.78469611085047</v>
       </c>
       <c r="N15" t="n">
-        <v>58.28761804876791</v>
+        <v>58.28761804876792</v>
       </c>
       <c r="O15" t="n">
-        <v>53.32178310412507</v>
+        <v>53.32178310412508</v>
       </c>
       <c r="P15" t="n">
-        <v>42.79543187249798</v>
+        <v>42.79543187249799</v>
       </c>
       <c r="Q15" t="n">
         <v>28.60761287190916</v>
@@ -32102,10 +32102,10 @@
         <v>13.91456046642201</v>
       </c>
       <c r="S15" t="n">
-        <v>4.162769396390022</v>
+        <v>4.162769396390023</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9033258737384726</v>
+        <v>0.9033258737384727</v>
       </c>
       <c r="U15" t="n">
         <v>0.0147441655125975</v>
@@ -32148,13 +32148,13 @@
         <v>0.1878873987725538</v>
       </c>
       <c r="H16" t="n">
-        <v>1.670489781814161</v>
+        <v>1.670489781814162</v>
       </c>
       <c r="I16" t="n">
-        <v>5.650286501269165</v>
+        <v>5.650286501269166</v>
       </c>
       <c r="J16" t="n">
-        <v>13.28363909321955</v>
+        <v>13.28363909321956</v>
       </c>
       <c r="K16" t="n">
         <v>21.82909960284761</v>
@@ -32178,13 +32178,13 @@
         <v>15.73300754630903</v>
       </c>
       <c r="R16" t="n">
-        <v>8.448100675718644</v>
+        <v>8.448100675718646</v>
       </c>
       <c r="S16" t="n">
         <v>3.274364940427141</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8027916129372751</v>
+        <v>0.8027916129372752</v>
       </c>
       <c r="U16" t="n">
         <v>0.01024840356941204</v>
@@ -32233,7 +32233,7 @@
         <v>16.14820522291135</v>
       </c>
       <c r="J17" t="n">
-        <v>35.55045024416243</v>
+        <v>35.55045024416244</v>
       </c>
       <c r="K17" t="n">
         <v>53.28090941246118</v>
@@ -32242,10 +32242,10 @@
         <v>66.0996795464518</v>
       </c>
       <c r="M17" t="n">
-        <v>73.54862954017332</v>
+        <v>73.54862954017334</v>
       </c>
       <c r="N17" t="n">
-        <v>74.73872325885816</v>
+        <v>74.73872325885817</v>
       </c>
       <c r="O17" t="n">
         <v>70.57365703266467</v>
@@ -32260,7 +32260,7 @@
         <v>26.31138567754893</v>
       </c>
       <c r="S17" t="n">
-        <v>9.544834356192009</v>
+        <v>9.544834356192011</v>
       </c>
       <c r="T17" t="n">
         <v>1.8335715806574</v>
@@ -32309,28 +32309,28 @@
         <v>2.164443497249312</v>
       </c>
       <c r="I18" t="n">
-        <v>7.716113284926021</v>
+        <v>7.716113284926022</v>
       </c>
       <c r="J18" t="n">
         <v>21.17360462045751</v>
       </c>
       <c r="K18" t="n">
-        <v>36.18906277848679</v>
+        <v>36.1890627784868</v>
       </c>
       <c r="L18" t="n">
-        <v>48.66066091340926</v>
+        <v>48.66066091340927</v>
       </c>
       <c r="M18" t="n">
-        <v>56.78469611085046</v>
+        <v>56.78469611085047</v>
       </c>
       <c r="N18" t="n">
-        <v>58.28761804876791</v>
+        <v>58.28761804876792</v>
       </c>
       <c r="O18" t="n">
-        <v>53.32178310412507</v>
+        <v>53.32178310412508</v>
       </c>
       <c r="P18" t="n">
-        <v>42.79543187249798</v>
+        <v>42.79543187249799</v>
       </c>
       <c r="Q18" t="n">
         <v>28.60761287190916</v>
@@ -32339,10 +32339,10 @@
         <v>13.91456046642201</v>
       </c>
       <c r="S18" t="n">
-        <v>4.162769396390022</v>
+        <v>4.162769396390023</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9033258737384726</v>
+        <v>0.9033258737384727</v>
       </c>
       <c r="U18" t="n">
         <v>0.0147441655125975</v>
@@ -32385,13 +32385,13 @@
         <v>0.1878873987725538</v>
       </c>
       <c r="H19" t="n">
-        <v>1.670489781814161</v>
+        <v>1.670489781814162</v>
       </c>
       <c r="I19" t="n">
-        <v>5.650286501269165</v>
+        <v>5.650286501269166</v>
       </c>
       <c r="J19" t="n">
-        <v>13.28363909321955</v>
+        <v>13.28363909321956</v>
       </c>
       <c r="K19" t="n">
         <v>21.82909960284761</v>
@@ -32415,13 +32415,13 @@
         <v>15.73300754630903</v>
       </c>
       <c r="R19" t="n">
-        <v>8.448100675718644</v>
+        <v>8.448100675718646</v>
       </c>
       <c r="S19" t="n">
         <v>3.274364940427141</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8027916129372751</v>
+        <v>0.8027916129372752</v>
       </c>
       <c r="U19" t="n">
         <v>0.01024840356941204</v>
@@ -32470,7 +32470,7 @@
         <v>16.14820522291135</v>
       </c>
       <c r="J20" t="n">
-        <v>35.55045024416243</v>
+        <v>35.55045024416244</v>
       </c>
       <c r="K20" t="n">
         <v>53.28090941246118</v>
@@ -32479,10 +32479,10 @@
         <v>66.0996795464518</v>
       </c>
       <c r="M20" t="n">
-        <v>73.54862954017332</v>
+        <v>73.54862954017334</v>
       </c>
       <c r="N20" t="n">
-        <v>74.73872325885816</v>
+        <v>74.73872325885817</v>
       </c>
       <c r="O20" t="n">
         <v>70.57365703266467</v>
@@ -32497,7 +32497,7 @@
         <v>26.31138567754893</v>
       </c>
       <c r="S20" t="n">
-        <v>9.544834356192009</v>
+        <v>9.544834356192011</v>
       </c>
       <c r="T20" t="n">
         <v>1.8335715806574</v>
@@ -32546,28 +32546,28 @@
         <v>2.164443497249312</v>
       </c>
       <c r="I21" t="n">
-        <v>7.716113284926021</v>
+        <v>7.716113284926022</v>
       </c>
       <c r="J21" t="n">
         <v>21.17360462045751</v>
       </c>
       <c r="K21" t="n">
-        <v>36.18906277848679</v>
+        <v>36.1890627784868</v>
       </c>
       <c r="L21" t="n">
-        <v>48.66066091340926</v>
+        <v>48.66066091340927</v>
       </c>
       <c r="M21" t="n">
-        <v>56.78469611085046</v>
+        <v>56.78469611085047</v>
       </c>
       <c r="N21" t="n">
-        <v>58.28761804876791</v>
+        <v>58.28761804876792</v>
       </c>
       <c r="O21" t="n">
-        <v>53.32178310412507</v>
+        <v>53.32178310412508</v>
       </c>
       <c r="P21" t="n">
-        <v>42.79543187249798</v>
+        <v>42.79543187249799</v>
       </c>
       <c r="Q21" t="n">
         <v>28.60761287190916</v>
@@ -32576,10 +32576,10 @@
         <v>13.91456046642201</v>
       </c>
       <c r="S21" t="n">
-        <v>4.162769396390022</v>
+        <v>4.162769396390023</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9033258737384726</v>
+        <v>0.9033258737384727</v>
       </c>
       <c r="U21" t="n">
         <v>0.0147441655125975</v>
@@ -32622,13 +32622,13 @@
         <v>0.1878873987725538</v>
       </c>
       <c r="H22" t="n">
-        <v>1.670489781814161</v>
+        <v>1.670489781814162</v>
       </c>
       <c r="I22" t="n">
-        <v>5.650286501269165</v>
+        <v>5.650286501269166</v>
       </c>
       <c r="J22" t="n">
-        <v>13.28363909321955</v>
+        <v>13.28363909321956</v>
       </c>
       <c r="K22" t="n">
         <v>21.82909960284761</v>
@@ -32652,13 +32652,13 @@
         <v>15.73300754630903</v>
       </c>
       <c r="R22" t="n">
-        <v>8.448100675718644</v>
+        <v>8.448100675718646</v>
       </c>
       <c r="S22" t="n">
         <v>3.274364940427141</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8027916129372751</v>
+        <v>0.8027916129372752</v>
       </c>
       <c r="U22" t="n">
         <v>0.01024840356941204</v>
@@ -32707,7 +32707,7 @@
         <v>16.14820522291135</v>
       </c>
       <c r="J23" t="n">
-        <v>35.55045024416243</v>
+        <v>35.55045024416244</v>
       </c>
       <c r="K23" t="n">
         <v>53.28090941246118</v>
@@ -32716,10 +32716,10 @@
         <v>66.0996795464518</v>
       </c>
       <c r="M23" t="n">
-        <v>73.54862954017332</v>
+        <v>73.54862954017334</v>
       </c>
       <c r="N23" t="n">
-        <v>74.73872325885816</v>
+        <v>74.73872325885817</v>
       </c>
       <c r="O23" t="n">
         <v>70.57365703266467</v>
@@ -32734,7 +32734,7 @@
         <v>26.31138567754893</v>
       </c>
       <c r="S23" t="n">
-        <v>9.544834356192009</v>
+        <v>9.544834356192011</v>
       </c>
       <c r="T23" t="n">
         <v>1.8335715806574</v>
@@ -32783,28 +32783,28 @@
         <v>2.164443497249312</v>
       </c>
       <c r="I24" t="n">
-        <v>7.716113284926021</v>
+        <v>7.716113284926022</v>
       </c>
       <c r="J24" t="n">
         <v>21.17360462045751</v>
       </c>
       <c r="K24" t="n">
-        <v>36.18906277848679</v>
+        <v>36.1890627784868</v>
       </c>
       <c r="L24" t="n">
-        <v>48.66066091340926</v>
+        <v>48.66066091340927</v>
       </c>
       <c r="M24" t="n">
-        <v>56.78469611085046</v>
+        <v>56.78469611085047</v>
       </c>
       <c r="N24" t="n">
-        <v>58.28761804876791</v>
+        <v>58.28761804876792</v>
       </c>
       <c r="O24" t="n">
-        <v>53.32178310412507</v>
+        <v>53.32178310412508</v>
       </c>
       <c r="P24" t="n">
-        <v>42.79543187249798</v>
+        <v>42.79543187249799</v>
       </c>
       <c r="Q24" t="n">
         <v>28.60761287190916</v>
@@ -32813,10 +32813,10 @@
         <v>13.91456046642201</v>
       </c>
       <c r="S24" t="n">
-        <v>4.162769396390022</v>
+        <v>4.162769396390023</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9033258737384726</v>
+        <v>0.9033258737384727</v>
       </c>
       <c r="U24" t="n">
         <v>0.0147441655125975</v>
@@ -32859,13 +32859,13 @@
         <v>0.1878873987725538</v>
       </c>
       <c r="H25" t="n">
-        <v>1.670489781814161</v>
+        <v>1.670489781814162</v>
       </c>
       <c r="I25" t="n">
-        <v>5.650286501269165</v>
+        <v>5.650286501269166</v>
       </c>
       <c r="J25" t="n">
-        <v>13.28363909321955</v>
+        <v>13.28363909321956</v>
       </c>
       <c r="K25" t="n">
         <v>21.82909960284761</v>
@@ -32889,13 +32889,13 @@
         <v>15.73300754630903</v>
       </c>
       <c r="R25" t="n">
-        <v>8.448100675718644</v>
+        <v>8.448100675718646</v>
       </c>
       <c r="S25" t="n">
         <v>3.274364940427141</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8027916129372751</v>
+        <v>0.8027916129372752</v>
       </c>
       <c r="U25" t="n">
         <v>0.01024840356941204</v>
@@ -32944,7 +32944,7 @@
         <v>16.14820522291135</v>
       </c>
       <c r="J26" t="n">
-        <v>35.55045024416243</v>
+        <v>35.55045024416244</v>
       </c>
       <c r="K26" t="n">
         <v>53.28090941246118</v>
@@ -32953,10 +32953,10 @@
         <v>66.0996795464518</v>
       </c>
       <c r="M26" t="n">
-        <v>73.54862954017332</v>
+        <v>73.54862954017334</v>
       </c>
       <c r="N26" t="n">
-        <v>74.73872325885816</v>
+        <v>74.73872325885817</v>
       </c>
       <c r="O26" t="n">
         <v>70.57365703266467</v>
@@ -32971,7 +32971,7 @@
         <v>26.31138567754893</v>
       </c>
       <c r="S26" t="n">
-        <v>9.544834356192009</v>
+        <v>9.544834356192011</v>
       </c>
       <c r="T26" t="n">
         <v>1.8335715806574</v>
@@ -33020,28 +33020,28 @@
         <v>2.164443497249312</v>
       </c>
       <c r="I27" t="n">
-        <v>7.716113284926021</v>
+        <v>7.716113284926022</v>
       </c>
       <c r="J27" t="n">
         <v>21.17360462045751</v>
       </c>
       <c r="K27" t="n">
-        <v>36.18906277848679</v>
+        <v>36.1890627784868</v>
       </c>
       <c r="L27" t="n">
-        <v>48.66066091340926</v>
+        <v>48.66066091340927</v>
       </c>
       <c r="M27" t="n">
-        <v>56.78469611085046</v>
+        <v>56.78469611085047</v>
       </c>
       <c r="N27" t="n">
-        <v>58.28761804876791</v>
+        <v>58.28761804876792</v>
       </c>
       <c r="O27" t="n">
-        <v>53.32178310412507</v>
+        <v>53.32178310412508</v>
       </c>
       <c r="P27" t="n">
-        <v>42.79543187249798</v>
+        <v>42.79543187249799</v>
       </c>
       <c r="Q27" t="n">
         <v>28.60761287190916</v>
@@ -33050,10 +33050,10 @@
         <v>13.91456046642201</v>
       </c>
       <c r="S27" t="n">
-        <v>4.162769396390022</v>
+        <v>4.162769396390023</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9033258737384726</v>
+        <v>0.9033258737384727</v>
       </c>
       <c r="U27" t="n">
         <v>0.0147441655125975</v>
@@ -33096,13 +33096,13 @@
         <v>0.1878873987725538</v>
       </c>
       <c r="H28" t="n">
-        <v>1.670489781814161</v>
+        <v>1.670489781814162</v>
       </c>
       <c r="I28" t="n">
-        <v>5.650286501269165</v>
+        <v>5.650286501269166</v>
       </c>
       <c r="J28" t="n">
-        <v>13.28363909321955</v>
+        <v>13.28363909321956</v>
       </c>
       <c r="K28" t="n">
         <v>21.82909960284761</v>
@@ -33126,13 +33126,13 @@
         <v>15.73300754630903</v>
       </c>
       <c r="R28" t="n">
-        <v>8.448100675718644</v>
+        <v>8.448100675718646</v>
       </c>
       <c r="S28" t="n">
         <v>3.274364940427141</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8027916129372751</v>
+        <v>0.8027916129372752</v>
       </c>
       <c r="U28" t="n">
         <v>0.01024840356941204</v>
@@ -33181,7 +33181,7 @@
         <v>16.14820522291135</v>
       </c>
       <c r="J29" t="n">
-        <v>35.55045024416243</v>
+        <v>35.55045024416244</v>
       </c>
       <c r="K29" t="n">
         <v>53.28090941246118</v>
@@ -33190,10 +33190,10 @@
         <v>66.0996795464518</v>
       </c>
       <c r="M29" t="n">
-        <v>73.54862954017332</v>
+        <v>73.54862954017334</v>
       </c>
       <c r="N29" t="n">
-        <v>74.73872325885816</v>
+        <v>74.73872325885817</v>
       </c>
       <c r="O29" t="n">
         <v>70.57365703266467</v>
@@ -33208,7 +33208,7 @@
         <v>26.31138567754893</v>
       </c>
       <c r="S29" t="n">
-        <v>9.544834356192009</v>
+        <v>9.544834356192011</v>
       </c>
       <c r="T29" t="n">
         <v>1.8335715806574</v>
@@ -33257,28 +33257,28 @@
         <v>2.164443497249312</v>
       </c>
       <c r="I30" t="n">
-        <v>7.716113284926021</v>
+        <v>7.716113284926022</v>
       </c>
       <c r="J30" t="n">
         <v>21.17360462045751</v>
       </c>
       <c r="K30" t="n">
-        <v>36.18906277848679</v>
+        <v>36.1890627784868</v>
       </c>
       <c r="L30" t="n">
-        <v>48.66066091340926</v>
+        <v>48.66066091340927</v>
       </c>
       <c r="M30" t="n">
-        <v>56.78469611085046</v>
+        <v>56.78469611085047</v>
       </c>
       <c r="N30" t="n">
-        <v>58.28761804876791</v>
+        <v>58.28761804876792</v>
       </c>
       <c r="O30" t="n">
-        <v>53.32178310412507</v>
+        <v>53.32178310412508</v>
       </c>
       <c r="P30" t="n">
-        <v>42.79543187249798</v>
+        <v>42.79543187249799</v>
       </c>
       <c r="Q30" t="n">
         <v>28.60761287190916</v>
@@ -33287,10 +33287,10 @@
         <v>13.91456046642201</v>
       </c>
       <c r="S30" t="n">
-        <v>4.162769396390022</v>
+        <v>4.162769396390023</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9033258737384726</v>
+        <v>0.9033258737384727</v>
       </c>
       <c r="U30" t="n">
         <v>0.0147441655125975</v>
@@ -33333,13 +33333,13 @@
         <v>0.1878873987725538</v>
       </c>
       <c r="H31" t="n">
-        <v>1.670489781814161</v>
+        <v>1.670489781814162</v>
       </c>
       <c r="I31" t="n">
-        <v>5.650286501269165</v>
+        <v>5.650286501269166</v>
       </c>
       <c r="J31" t="n">
-        <v>13.28363909321955</v>
+        <v>13.28363909321956</v>
       </c>
       <c r="K31" t="n">
         <v>21.82909960284761</v>
@@ -33363,13 +33363,13 @@
         <v>15.73300754630903</v>
       </c>
       <c r="R31" t="n">
-        <v>8.448100675718644</v>
+        <v>8.448100675718646</v>
       </c>
       <c r="S31" t="n">
         <v>3.274364940427141</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8027916129372751</v>
+        <v>0.8027916129372752</v>
       </c>
       <c r="U31" t="n">
         <v>0.01024840356941204</v>
@@ -33418,7 +33418,7 @@
         <v>16.14820522291135</v>
       </c>
       <c r="J32" t="n">
-        <v>35.55045024416243</v>
+        <v>35.55045024416244</v>
       </c>
       <c r="K32" t="n">
         <v>53.28090941246118</v>
@@ -33427,10 +33427,10 @@
         <v>66.0996795464518</v>
       </c>
       <c r="M32" t="n">
-        <v>73.54862954017332</v>
+        <v>73.54862954017334</v>
       </c>
       <c r="N32" t="n">
-        <v>74.73872325885816</v>
+        <v>74.73872325885817</v>
       </c>
       <c r="O32" t="n">
         <v>70.57365703266467</v>
@@ -33445,7 +33445,7 @@
         <v>26.31138567754893</v>
       </c>
       <c r="S32" t="n">
-        <v>9.544834356192009</v>
+        <v>9.544834356192011</v>
       </c>
       <c r="T32" t="n">
         <v>1.8335715806574</v>
@@ -33494,28 +33494,28 @@
         <v>2.164443497249312</v>
       </c>
       <c r="I33" t="n">
-        <v>7.716113284926021</v>
+        <v>7.716113284926022</v>
       </c>
       <c r="J33" t="n">
         <v>21.17360462045751</v>
       </c>
       <c r="K33" t="n">
-        <v>36.18906277848679</v>
+        <v>36.1890627784868</v>
       </c>
       <c r="L33" t="n">
-        <v>48.66066091340926</v>
+        <v>48.66066091340927</v>
       </c>
       <c r="M33" t="n">
-        <v>56.78469611085046</v>
+        <v>56.78469611085047</v>
       </c>
       <c r="N33" t="n">
-        <v>58.28761804876791</v>
+        <v>58.28761804876792</v>
       </c>
       <c r="O33" t="n">
-        <v>53.32178310412507</v>
+        <v>53.32178310412508</v>
       </c>
       <c r="P33" t="n">
-        <v>42.79543187249798</v>
+        <v>42.79543187249799</v>
       </c>
       <c r="Q33" t="n">
         <v>28.60761287190916</v>
@@ -33524,10 +33524,10 @@
         <v>13.91456046642201</v>
       </c>
       <c r="S33" t="n">
-        <v>4.162769396390022</v>
+        <v>4.162769396390023</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9033258737384726</v>
+        <v>0.9033258737384727</v>
       </c>
       <c r="U33" t="n">
         <v>0.0147441655125975</v>
@@ -33570,13 +33570,13 @@
         <v>0.1878873987725538</v>
       </c>
       <c r="H34" t="n">
-        <v>1.670489781814161</v>
+        <v>1.670489781814162</v>
       </c>
       <c r="I34" t="n">
-        <v>5.650286501269165</v>
+        <v>5.650286501269166</v>
       </c>
       <c r="J34" t="n">
-        <v>13.28363909321955</v>
+        <v>13.28363909321956</v>
       </c>
       <c r="K34" t="n">
         <v>21.82909960284761</v>
@@ -33600,13 +33600,13 @@
         <v>15.73300754630903</v>
       </c>
       <c r="R34" t="n">
-        <v>8.448100675718644</v>
+        <v>8.448100675718646</v>
       </c>
       <c r="S34" t="n">
         <v>3.274364940427141</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8027916129372751</v>
+        <v>0.8027916129372752</v>
       </c>
       <c r="U34" t="n">
         <v>0.01024840356941204</v>
@@ -33655,7 +33655,7 @@
         <v>16.14820522291135</v>
       </c>
       <c r="J35" t="n">
-        <v>35.55045024416243</v>
+        <v>35.55045024416244</v>
       </c>
       <c r="K35" t="n">
         <v>53.28090941246118</v>
@@ -33664,10 +33664,10 @@
         <v>66.0996795464518</v>
       </c>
       <c r="M35" t="n">
-        <v>73.54862954017332</v>
+        <v>73.54862954017334</v>
       </c>
       <c r="N35" t="n">
-        <v>74.73872325885816</v>
+        <v>74.73872325885817</v>
       </c>
       <c r="O35" t="n">
         <v>70.57365703266467</v>
@@ -33682,7 +33682,7 @@
         <v>26.31138567754893</v>
       </c>
       <c r="S35" t="n">
-        <v>9.544834356192009</v>
+        <v>9.544834356192011</v>
       </c>
       <c r="T35" t="n">
         <v>1.8335715806574</v>
@@ -33731,28 +33731,28 @@
         <v>2.164443497249312</v>
       </c>
       <c r="I36" t="n">
-        <v>7.716113284926021</v>
+        <v>7.716113284926022</v>
       </c>
       <c r="J36" t="n">
         <v>21.17360462045751</v>
       </c>
       <c r="K36" t="n">
-        <v>36.18906277848679</v>
+        <v>36.1890627784868</v>
       </c>
       <c r="L36" t="n">
-        <v>48.66066091340926</v>
+        <v>48.66066091340927</v>
       </c>
       <c r="M36" t="n">
-        <v>56.78469611085046</v>
+        <v>56.78469611085047</v>
       </c>
       <c r="N36" t="n">
-        <v>58.28761804876791</v>
+        <v>58.28761804876792</v>
       </c>
       <c r="O36" t="n">
-        <v>53.32178310412507</v>
+        <v>53.32178310412508</v>
       </c>
       <c r="P36" t="n">
-        <v>42.79543187249798</v>
+        <v>42.79543187249799</v>
       </c>
       <c r="Q36" t="n">
         <v>28.60761287190916</v>
@@ -33761,10 +33761,10 @@
         <v>13.91456046642201</v>
       </c>
       <c r="S36" t="n">
-        <v>4.162769396390022</v>
+        <v>4.162769396390023</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9033258737384726</v>
+        <v>0.9033258737384727</v>
       </c>
       <c r="U36" t="n">
         <v>0.0147441655125975</v>
@@ -33807,13 +33807,13 @@
         <v>0.1878873987725538</v>
       </c>
       <c r="H37" t="n">
-        <v>1.670489781814161</v>
+        <v>1.670489781814162</v>
       </c>
       <c r="I37" t="n">
-        <v>5.650286501269165</v>
+        <v>5.650286501269166</v>
       </c>
       <c r="J37" t="n">
-        <v>13.28363909321955</v>
+        <v>13.28363909321956</v>
       </c>
       <c r="K37" t="n">
         <v>21.82909960284761</v>
@@ -33837,13 +33837,13 @@
         <v>15.73300754630903</v>
       </c>
       <c r="R37" t="n">
-        <v>8.448100675718644</v>
+        <v>8.448100675718646</v>
       </c>
       <c r="S37" t="n">
         <v>3.274364940427141</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8027916129372751</v>
+        <v>0.8027916129372752</v>
       </c>
       <c r="U37" t="n">
         <v>0.01024840356941204</v>
@@ -33892,7 +33892,7 @@
         <v>16.14820522291135</v>
       </c>
       <c r="J38" t="n">
-        <v>35.55045024416243</v>
+        <v>35.55045024416244</v>
       </c>
       <c r="K38" t="n">
         <v>53.28090941246118</v>
@@ -33901,10 +33901,10 @@
         <v>66.0996795464518</v>
       </c>
       <c r="M38" t="n">
-        <v>73.54862954017332</v>
+        <v>73.54862954017334</v>
       </c>
       <c r="N38" t="n">
-        <v>74.73872325885816</v>
+        <v>74.73872325885817</v>
       </c>
       <c r="O38" t="n">
         <v>70.57365703266467</v>
@@ -33919,7 +33919,7 @@
         <v>26.31138567754893</v>
       </c>
       <c r="S38" t="n">
-        <v>9.544834356192009</v>
+        <v>9.544834356192011</v>
       </c>
       <c r="T38" t="n">
         <v>1.8335715806574</v>
@@ -33968,28 +33968,28 @@
         <v>2.164443497249312</v>
       </c>
       <c r="I39" t="n">
-        <v>7.716113284926021</v>
+        <v>7.716113284926022</v>
       </c>
       <c r="J39" t="n">
         <v>21.17360462045751</v>
       </c>
       <c r="K39" t="n">
-        <v>36.18906277848679</v>
+        <v>36.1890627784868</v>
       </c>
       <c r="L39" t="n">
-        <v>48.66066091340926</v>
+        <v>48.66066091340927</v>
       </c>
       <c r="M39" t="n">
-        <v>56.78469611085046</v>
+        <v>56.78469611085047</v>
       </c>
       <c r="N39" t="n">
-        <v>58.28761804876791</v>
+        <v>58.28761804876792</v>
       </c>
       <c r="O39" t="n">
-        <v>53.32178310412507</v>
+        <v>53.32178310412508</v>
       </c>
       <c r="P39" t="n">
-        <v>42.79543187249798</v>
+        <v>42.79543187249799</v>
       </c>
       <c r="Q39" t="n">
         <v>28.60761287190916</v>
@@ -33998,10 +33998,10 @@
         <v>13.91456046642201</v>
       </c>
       <c r="S39" t="n">
-        <v>4.162769396390022</v>
+        <v>4.162769396390023</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9033258737384726</v>
+        <v>0.9033258737384727</v>
       </c>
       <c r="U39" t="n">
         <v>0.0147441655125975</v>
@@ -34044,13 +34044,13 @@
         <v>0.1878873987725538</v>
       </c>
       <c r="H40" t="n">
-        <v>1.670489781814161</v>
+        <v>1.670489781814162</v>
       </c>
       <c r="I40" t="n">
-        <v>5.650286501269165</v>
+        <v>5.650286501269166</v>
       </c>
       <c r="J40" t="n">
-        <v>13.28363909321955</v>
+        <v>13.28363909321956</v>
       </c>
       <c r="K40" t="n">
         <v>21.82909960284761</v>
@@ -34074,13 +34074,13 @@
         <v>15.73300754630903</v>
       </c>
       <c r="R40" t="n">
-        <v>8.448100675718644</v>
+        <v>8.448100675718646</v>
       </c>
       <c r="S40" t="n">
         <v>3.274364940427141</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8027916129372751</v>
+        <v>0.8027916129372752</v>
       </c>
       <c r="U40" t="n">
         <v>0.01024840356941204</v>
@@ -34129,7 +34129,7 @@
         <v>16.14820522291135</v>
       </c>
       <c r="J41" t="n">
-        <v>35.55045024416243</v>
+        <v>35.55045024416244</v>
       </c>
       <c r="K41" t="n">
         <v>53.28090941246118</v>
@@ -34138,10 +34138,10 @@
         <v>66.0996795464518</v>
       </c>
       <c r="M41" t="n">
-        <v>73.54862954017332</v>
+        <v>73.54862954017334</v>
       </c>
       <c r="N41" t="n">
-        <v>74.73872325885816</v>
+        <v>74.73872325885817</v>
       </c>
       <c r="O41" t="n">
         <v>70.57365703266467</v>
@@ -34156,7 +34156,7 @@
         <v>26.31138567754893</v>
       </c>
       <c r="S41" t="n">
-        <v>9.544834356192009</v>
+        <v>9.544834356192011</v>
       </c>
       <c r="T41" t="n">
         <v>1.8335715806574</v>
@@ -34205,28 +34205,28 @@
         <v>2.164443497249312</v>
       </c>
       <c r="I42" t="n">
-        <v>7.716113284926021</v>
+        <v>7.716113284926022</v>
       </c>
       <c r="J42" t="n">
         <v>21.17360462045751</v>
       </c>
       <c r="K42" t="n">
-        <v>36.18906277848679</v>
+        <v>36.1890627784868</v>
       </c>
       <c r="L42" t="n">
-        <v>48.66066091340926</v>
+        <v>48.66066091340927</v>
       </c>
       <c r="M42" t="n">
-        <v>56.78469611085046</v>
+        <v>56.78469611085047</v>
       </c>
       <c r="N42" t="n">
-        <v>58.28761804876791</v>
+        <v>58.28761804876792</v>
       </c>
       <c r="O42" t="n">
-        <v>53.32178310412507</v>
+        <v>53.32178310412508</v>
       </c>
       <c r="P42" t="n">
-        <v>42.79543187249798</v>
+        <v>42.79543187249799</v>
       </c>
       <c r="Q42" t="n">
         <v>28.60761287190916</v>
@@ -34235,10 +34235,10 @@
         <v>13.91456046642201</v>
       </c>
       <c r="S42" t="n">
-        <v>4.162769396390022</v>
+        <v>4.162769396390023</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9033258737384726</v>
+        <v>0.9033258737384727</v>
       </c>
       <c r="U42" t="n">
         <v>0.0147441655125975</v>
@@ -34281,13 +34281,13 @@
         <v>0.1878873987725538</v>
       </c>
       <c r="H43" t="n">
-        <v>1.670489781814161</v>
+        <v>1.670489781814162</v>
       </c>
       <c r="I43" t="n">
-        <v>5.650286501269165</v>
+        <v>5.650286501269166</v>
       </c>
       <c r="J43" t="n">
-        <v>13.28363909321955</v>
+        <v>13.28363909321956</v>
       </c>
       <c r="K43" t="n">
         <v>21.82909960284761</v>
@@ -34311,13 +34311,13 @@
         <v>15.73300754630903</v>
       </c>
       <c r="R43" t="n">
-        <v>8.448100675718644</v>
+        <v>8.448100675718646</v>
       </c>
       <c r="S43" t="n">
         <v>3.274364940427141</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8027916129372751</v>
+        <v>0.8027916129372752</v>
       </c>
       <c r="U43" t="n">
         <v>0.01024840356941204</v>
@@ -34366,7 +34366,7 @@
         <v>16.14820522291135</v>
       </c>
       <c r="J44" t="n">
-        <v>35.55045024416243</v>
+        <v>35.55045024416244</v>
       </c>
       <c r="K44" t="n">
         <v>53.28090941246118</v>
@@ -34375,10 +34375,10 @@
         <v>66.0996795464518</v>
       </c>
       <c r="M44" t="n">
-        <v>73.54862954017332</v>
+        <v>73.54862954017334</v>
       </c>
       <c r="N44" t="n">
-        <v>74.73872325885816</v>
+        <v>74.73872325885817</v>
       </c>
       <c r="O44" t="n">
         <v>70.57365703266467</v>
@@ -34393,7 +34393,7 @@
         <v>26.31138567754893</v>
       </c>
       <c r="S44" t="n">
-        <v>9.544834356192009</v>
+        <v>9.544834356192011</v>
       </c>
       <c r="T44" t="n">
         <v>1.8335715806574</v>
@@ -34442,28 +34442,28 @@
         <v>2.164443497249312</v>
       </c>
       <c r="I45" t="n">
-        <v>7.716113284926021</v>
+        <v>7.716113284926022</v>
       </c>
       <c r="J45" t="n">
         <v>21.17360462045751</v>
       </c>
       <c r="K45" t="n">
-        <v>36.18906277848679</v>
+        <v>36.1890627784868</v>
       </c>
       <c r="L45" t="n">
-        <v>48.66066091340926</v>
+        <v>48.66066091340927</v>
       </c>
       <c r="M45" t="n">
-        <v>56.78469611085046</v>
+        <v>56.78469611085047</v>
       </c>
       <c r="N45" t="n">
-        <v>58.28761804876791</v>
+        <v>58.28761804876792</v>
       </c>
       <c r="O45" t="n">
-        <v>53.32178310412507</v>
+        <v>53.32178310412508</v>
       </c>
       <c r="P45" t="n">
-        <v>42.79543187249798</v>
+        <v>42.79543187249799</v>
       </c>
       <c r="Q45" t="n">
         <v>28.60761287190916</v>
@@ -34472,10 +34472,10 @@
         <v>13.91456046642201</v>
       </c>
       <c r="S45" t="n">
-        <v>4.162769396390022</v>
+        <v>4.162769396390023</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9033258737384726</v>
+        <v>0.9033258737384727</v>
       </c>
       <c r="U45" t="n">
         <v>0.0147441655125975</v>
@@ -34518,13 +34518,13 @@
         <v>0.1878873987725538</v>
       </c>
       <c r="H46" t="n">
-        <v>1.670489781814161</v>
+        <v>1.670489781814162</v>
       </c>
       <c r="I46" t="n">
-        <v>5.650286501269165</v>
+        <v>5.650286501269166</v>
       </c>
       <c r="J46" t="n">
-        <v>13.28363909321955</v>
+        <v>13.28363909321956</v>
       </c>
       <c r="K46" t="n">
         <v>21.82909960284761</v>
@@ -34548,13 +34548,13 @@
         <v>15.73300754630903</v>
       </c>
       <c r="R46" t="n">
-        <v>8.448100675718644</v>
+        <v>8.448100675718646</v>
       </c>
       <c r="S46" t="n">
         <v>3.274364940427141</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8027916129372751</v>
+        <v>0.8027916129372752</v>
       </c>
       <c r="U46" t="n">
         <v>0.01024840356941204</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2586170378897293</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>83.81099470625608</v>
+        <v>49.36773734964897</v>
       </c>
       <c r="L11" t="n">
-        <v>49.10912031175923</v>
+        <v>83.8109947062561</v>
       </c>
       <c r="M11" t="n">
-        <v>83.81099470625608</v>
+        <v>83.8109947062561</v>
       </c>
       <c r="N11" t="n">
-        <v>78.25559268998296</v>
+        <v>78.25559268998298</v>
       </c>
       <c r="O11" t="n">
         <v>36.61235655646584</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>39.39598081391981</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>83.8109947062561</v>
       </c>
       <c r="M12" t="n">
-        <v>83.81099470625608</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>83.81099470625608</v>
+        <v>41.02871107592191</v>
       </c>
       <c r="O12" t="n">
-        <v>83.81099470625608</v>
+        <v>83.8109947062561</v>
       </c>
       <c r="P12" t="n">
-        <v>80.42469188984172</v>
+        <v>83.8109947062561</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35541,19 +35541,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.70558179537818</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>59.13985220963556</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>65.39562024189959</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>83.81099470625608</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>41.66635797006519</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>83.81099470625608</v>
+        <v>83.8109947062561</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>83.8109947062561</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>62.11617173317946</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>0.2586170378897706</v>
       </c>
       <c r="L14" t="n">
         <v>49.10912031175923</v>
       </c>
       <c r="M14" t="n">
-        <v>83.81099470625608</v>
+        <v>83.8109947062561</v>
       </c>
       <c r="N14" t="n">
-        <v>78.25559268998296</v>
+        <v>78.25559268998298</v>
       </c>
       <c r="O14" t="n">
         <v>36.61235655646584</v>
       </c>
       <c r="P14" t="n">
-        <v>73.86583966179911</v>
+        <v>83.8109947062561</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>10.20377208234673</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,19 +35726,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>39.39598081391981</v>
       </c>
       <c r="L15" t="n">
-        <v>83.81099470625608</v>
+        <v>83.8109947062561</v>
       </c>
       <c r="M15" t="n">
-        <v>83.81099470625608</v>
+        <v>83.8109947062561</v>
       </c>
       <c r="N15" t="n">
-        <v>83.81099470625608</v>
+        <v>41.02871107592191</v>
       </c>
       <c r="O15" t="n">
-        <v>80.42469188984172</v>
+        <v>83.8109947062561</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35778,13 +35778,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.70558179537827</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>59.13985220963554</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -35799,19 +35799,19 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>39.63334649163599</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>83.8109947062561</v>
       </c>
       <c r="K16" t="n">
-        <v>23.24456513218585</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>83.81099470625608</v>
+        <v>83.8109947062561</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>28.73859327380752</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -35820,10 +35820,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>83.81099470625608</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>77.5616450475144</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,7 +35878,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>83.81099470625608</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -35887,13 +35887,13 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>49.10912031175923</v>
+        <v>49.367737349649</v>
       </c>
       <c r="M17" t="n">
-        <v>83.81099470625608</v>
+        <v>83.8109947062561</v>
       </c>
       <c r="N17" t="n">
-        <v>78.25559268998296</v>
+        <v>78.25559268998298</v>
       </c>
       <c r="O17" t="n">
         <v>36.61235655646584</v>
@@ -35905,7 +35905,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>83.8109947062561</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35914,7 +35914,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2586170378897419</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -35963,19 +35963,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>39.39598081391981</v>
       </c>
       <c r="L18" t="n">
-        <v>83.81099470625608</v>
+        <v>83.8109947062561</v>
       </c>
       <c r="M18" t="n">
-        <v>83.81099470625608</v>
+        <v>41.02871107592191</v>
       </c>
       <c r="N18" t="n">
-        <v>83.81099470625608</v>
+        <v>83.8109947062561</v>
       </c>
       <c r="O18" t="n">
-        <v>80.42469188984172</v>
+        <v>83.8109947062561</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36115,10 +36115,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>69.23167947462896</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>83.8109947062561</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -36127,10 +36127,10 @@
         <v>49.10912031175923</v>
       </c>
       <c r="M20" t="n">
-        <v>83.81099470625608</v>
+        <v>83.8109947062561</v>
       </c>
       <c r="N20" t="n">
-        <v>78.25559268998296</v>
+        <v>78.25559268998298</v>
       </c>
       <c r="O20" t="n">
         <v>36.61235655646584</v>
@@ -36139,7 +36139,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>0.2586170378897419</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36154,7 +36154,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>14.83793226951684</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>39.3959808139198</v>
+        <v>39.39598081391981</v>
       </c>
       <c r="L21" t="n">
-        <v>41.02871107592193</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>41.02871107592191</v>
       </c>
       <c r="N21" t="n">
-        <v>83.81099470625608</v>
+        <v>83.8109947062561</v>
       </c>
       <c r="O21" t="n">
-        <v>83.81099470625608</v>
+        <v>83.8109947062561</v>
       </c>
       <c r="P21" t="n">
-        <v>83.81099470625608</v>
+        <v>83.8109947062561</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>83.81099470625612</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -36364,10 +36364,10 @@
         <v>49.10912031175923</v>
       </c>
       <c r="M23" t="n">
-        <v>83.81099470625612</v>
+        <v>83.8109947062561</v>
       </c>
       <c r="N23" t="n">
-        <v>78.25559268998296</v>
+        <v>83.8109947062561</v>
       </c>
       <c r="O23" t="n">
         <v>36.61235655646584</v>
@@ -36376,7 +36376,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.2586170378897993</v>
+        <v>63.67627745835583</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36391,7 +36391,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>14.8379322695169</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -36440,19 +36440,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>83.81099470625612</v>
+        <v>83.8109947062561</v>
       </c>
       <c r="M24" t="n">
-        <v>83.81099470625612</v>
+        <v>83.8109947062561</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>80.4246918898417</v>
       </c>
       <c r="O24" t="n">
-        <v>80.42469188984172</v>
+        <v>83.8109947062561</v>
       </c>
       <c r="P24" t="n">
-        <v>83.81099470625612</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>261.9515269856722</v>
       </c>
       <c r="M26" t="n">
-        <v>296.653401380169</v>
+        <v>296.6534013801695</v>
       </c>
       <c r="N26" t="n">
         <v>291.097999363896</v>
@@ -36616,7 +36616,7 @@
         <v>124.4420411176421</v>
       </c>
       <c r="R26" t="n">
-        <v>18.72367629591335</v>
+        <v>18.72367629591334</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>39.3959808139198</v>
+        <v>39.39598081391981</v>
       </c>
       <c r="L27" t="n">
         <v>119.9288613386043</v>
@@ -36689,7 +36689,7 @@
         <v>134.5771477732236</v>
       </c>
       <c r="P27" t="n">
-        <v>85.71052890569436</v>
+        <v>85.71052890569437</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36726,7 +36726,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>14.0986598994465</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -36735,22 +36735,22 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>71.16626546168797</v>
       </c>
       <c r="F28" t="n">
-        <v>73.91552445546631</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>44.14707894474055</v>
+        <v>24.73089275851349</v>
       </c>
       <c r="H28" t="n">
-        <v>47.06643956128725</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>48.15325070520271</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>92.987915988194</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -36774,7 +36774,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.657371347454836</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0914600270219</v>
+        <v>137.0914600270224</v>
       </c>
       <c r="K29" t="n">
         <v>207.6599251576126</v>
@@ -36841,10 +36841,10 @@
         <v>296.653401380169</v>
       </c>
       <c r="N29" t="n">
-        <v>291.0979993638959</v>
+        <v>291.097999363896</v>
       </c>
       <c r="O29" t="n">
-        <v>249.4547632303796</v>
+        <v>249.4547632303788</v>
       </c>
       <c r="P29" t="n">
         <v>199.4966982457225</v>
@@ -36853,7 +36853,7 @@
         <v>124.4420411176421</v>
       </c>
       <c r="R29" t="n">
-        <v>18.72367629591331</v>
+        <v>18.72367629591334</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>39.3959808139198</v>
+        <v>39.39598081391981</v>
       </c>
       <c r="L30" t="n">
         <v>119.9288613386043</v>
@@ -36926,7 +36926,7 @@
         <v>134.5771477732236</v>
       </c>
       <c r="P30" t="n">
-        <v>85.71052890569436</v>
+        <v>85.71052890569437</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36969,7 +36969,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>67.65975642320223</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -36996,16 +36996,16 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>39.88250575807304</v>
       </c>
       <c r="N31" t="n">
-        <v>14.35594688103511</v>
+        <v>197.1558191555251</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>155.0226216093611</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37084,13 +37084,13 @@
         <v>249.4547632303788</v>
       </c>
       <c r="P32" t="n">
-        <v>199.4966982457228</v>
+        <v>199.4966982457225</v>
       </c>
       <c r="Q32" t="n">
         <v>124.4420411176421</v>
       </c>
       <c r="R32" t="n">
-        <v>18.72367629591334</v>
+        <v>18.72367629591335</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>39.3959808139198</v>
+        <v>39.39598081391981</v>
       </c>
       <c r="L33" t="n">
         <v>119.9288613386043</v>
@@ -37163,7 +37163,7 @@
         <v>134.5771477732236</v>
       </c>
       <c r="P33" t="n">
-        <v>85.71052890569436</v>
+        <v>85.71052890569437</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37215,7 +37215,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>44.14707894474055</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -37227,10 +37227,10 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>146.4452919000423</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>90.5930330135559</v>
+        <v>181.5004402054236</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -37239,7 +37239,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>11.39080576343408</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -37303,22 +37303,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>69.48030149796926</v>
+        <v>124.9852810888747</v>
       </c>
       <c r="K35" t="n">
         <v>230.8357348778177</v>
       </c>
       <c r="L35" t="n">
-        <v>285.1273367058773</v>
+        <v>49.10912031175923</v>
       </c>
       <c r="M35" t="n">
         <v>319.8292111003742</v>
       </c>
       <c r="N35" t="n">
-        <v>78.25559268998296</v>
+        <v>78.25559268998298</v>
       </c>
       <c r="O35" t="n">
-        <v>36.61235655646584</v>
+        <v>272.6305729505839</v>
       </c>
       <c r="P35" t="n">
         <v>222.6725079659277</v>
@@ -37327,13 +37327,13 @@
         <v>147.6178508378473</v>
       </c>
       <c r="R35" t="n">
-        <v>41.89948601611847</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>8.777943972251105</v>
+        <v>8.777943972251107</v>
       </c>
       <c r="T35" t="n">
-        <v>13.60549357478745</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>39.3959808139198</v>
+        <v>39.39598081391981</v>
       </c>
       <c r="L36" t="n">
         <v>119.9288613386043</v>
@@ -37400,7 +37400,7 @@
         <v>134.5771477732236</v>
       </c>
       <c r="P36" t="n">
-        <v>85.71052890569436</v>
+        <v>85.71052890569437</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37455,10 +37455,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>47.04797553021578</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>71.32906042540785</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -37470,7 +37470,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>117.7019341228882</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -37488,7 +37488,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>0.6751018327354292</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -37540,37 +37540,37 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>160.2672697472271</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>140.0487666285594</v>
+        <v>230.8357348778177</v>
       </c>
       <c r="L38" t="n">
-        <v>49.10912031175923</v>
+        <v>285.1273367058773</v>
       </c>
       <c r="M38" t="n">
-        <v>319.8292111003742</v>
+        <v>314.5146406168597</v>
       </c>
       <c r="N38" t="n">
-        <v>78.25559268998296</v>
+        <v>314.2738090841011</v>
       </c>
       <c r="O38" t="n">
-        <v>272.630572950584</v>
+        <v>36.61235655646584</v>
       </c>
       <c r="P38" t="n">
         <v>222.6725079659277</v>
       </c>
       <c r="Q38" t="n">
-        <v>147.6178508378473</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>41.8994860161185</v>
+        <v>41.89948601611848</v>
       </c>
       <c r="S38" t="n">
-        <v>8.777943972251133</v>
+        <v>8.777943972251107</v>
       </c>
       <c r="T38" t="n">
-        <v>13.60549357478748</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>39.3959808139198</v>
+        <v>39.39598081391981</v>
       </c>
       <c r="L39" t="n">
         <v>119.9288613386043</v>
@@ -37637,7 +37637,7 @@
         <v>134.5771477732236</v>
       </c>
       <c r="P39" t="n">
-        <v>85.71052890569436</v>
+        <v>85.71052890569437</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37674,10 +37674,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>58.40129572915004</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>41.09879664652377</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -37686,7 +37686,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>97.09133417567145</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -37716,7 +37716,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>21.28570177995216</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37743,7 +37743,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>18.87694357994971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -37780,19 +37780,19 @@
         <v>160.2672697472271</v>
       </c>
       <c r="K41" t="n">
-        <v>230.8357348778178</v>
+        <v>140.0487666285594</v>
       </c>
       <c r="L41" t="n">
         <v>49.10912031175923</v>
       </c>
       <c r="M41" t="n">
-        <v>229.0422428511158</v>
+        <v>319.8292111003742</v>
       </c>
       <c r="N41" t="n">
-        <v>314.2738090841011</v>
+        <v>78.25559268998298</v>
       </c>
       <c r="O41" t="n">
-        <v>36.61235655646584</v>
+        <v>272.630572950584</v>
       </c>
       <c r="P41" t="n">
         <v>222.6725079659277</v>
@@ -37801,10 +37801,10 @@
         <v>147.6178508378473</v>
       </c>
       <c r="R41" t="n">
-        <v>41.8994860161185</v>
+        <v>41.89948601611851</v>
       </c>
       <c r="S41" t="n">
-        <v>8.777943972251133</v>
+        <v>8.777943972251135</v>
       </c>
       <c r="T41" t="n">
         <v>13.60549357478748</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>39.3959808139198</v>
+        <v>39.39598081391981</v>
       </c>
       <c r="L42" t="n">
         <v>119.9288613386043</v>
@@ -37874,7 +37874,7 @@
         <v>134.5771477732236</v>
       </c>
       <c r="P42" t="n">
-        <v>85.71052890569436</v>
+        <v>85.71052890569437</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37917,7 +37917,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>90.83556614340742</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -37953,13 +37953,13 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>118.3770359556235</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>27.54146981221611</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38014,10 +38014,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>160.267269747227</v>
+        <v>160.2672697472271</v>
       </c>
       <c r="K44" t="n">
-        <v>230.8357348778177</v>
+        <v>230.8357348778178</v>
       </c>
       <c r="L44" t="n">
         <v>49.10912031175923</v>
@@ -38026,25 +38026,25 @@
         <v>319.8292111003742</v>
       </c>
       <c r="N44" t="n">
-        <v>314.273809084101</v>
+        <v>314.2738090841011</v>
       </c>
       <c r="O44" t="n">
         <v>36.61235655646584</v>
       </c>
       <c r="P44" t="n">
-        <v>222.6725079659276</v>
+        <v>131.8855397166691</v>
       </c>
       <c r="Q44" t="n">
-        <v>121.1138061517463</v>
+        <v>147.6178508378473</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>41.89948601611851</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>8.777943972251135</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>13.60549357478748</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>39.3959808139198</v>
+        <v>39.39598081391981</v>
       </c>
       <c r="L45" t="n">
         <v>119.9288613386043</v>
@@ -38111,7 +38111,7 @@
         <v>134.5771477732236</v>
       </c>
       <c r="P45" t="n">
-        <v>85.71052890569436</v>
+        <v>85.71052890569437</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38169,7 +38169,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>71.32906042540782</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -38178,7 +38178,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>118.3770359556235</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -38193,10 +38193,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>14.21479446255595</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>32.83318106765994</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
